--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_IMPORT_AR_50_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_IMPORT_AR_50_9.xlsx
@@ -369,185 +369,176 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA24"/>
+  <dimension ref="A1:AZ22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:52">
       <c r="B1" s="1">
-        <v>39400</v>
+        <v>39583</v>
       </c>
       <c r="C1" s="1">
-        <v>39583</v>
+        <v>39765</v>
       </c>
       <c r="D1" s="1">
-        <v>39765</v>
+        <v>39948</v>
       </c>
       <c r="E1" s="1">
-        <v>39948</v>
+        <v>40130</v>
       </c>
       <c r="F1" s="1">
-        <v>40130</v>
+        <v>40310</v>
       </c>
       <c r="G1" s="1">
-        <v>40310</v>
+        <v>40494</v>
       </c>
       <c r="H1" s="1">
-        <v>40494</v>
+        <v>40676</v>
       </c>
       <c r="I1" s="1">
-        <v>40676</v>
+        <v>40862</v>
       </c>
       <c r="J1" s="1">
-        <v>40862</v>
+        <v>41044</v>
       </c>
       <c r="K1" s="1">
-        <v>41044</v>
+        <v>41228</v>
       </c>
       <c r="L1" s="1">
-        <v>41228</v>
+        <v>41409</v>
       </c>
       <c r="M1" s="1">
-        <v>41409</v>
+        <v>41592</v>
       </c>
       <c r="N1" s="1">
-        <v>41592</v>
+        <v>41774</v>
       </c>
       <c r="O1" s="1">
-        <v>41774</v>
+        <v>41957</v>
       </c>
       <c r="P1" s="1">
-        <v>41957</v>
+        <v>42137</v>
       </c>
       <c r="Q1" s="1">
-        <v>42137</v>
+        <v>42321</v>
       </c>
       <c r="R1" s="1">
-        <v>42321</v>
+        <v>42503</v>
       </c>
       <c r="S1" s="1">
-        <v>42503</v>
+        <v>42689</v>
       </c>
       <c r="T1" s="1">
-        <v>42689</v>
+        <v>42867</v>
       </c>
       <c r="U1" s="1">
-        <v>42867</v>
+        <v>43053</v>
       </c>
       <c r="V1" s="1">
-        <v>43053</v>
+        <v>43145</v>
       </c>
       <c r="W1" s="1">
-        <v>43145</v>
+        <v>43235</v>
       </c>
       <c r="X1" s="1">
-        <v>43235</v>
+        <v>43326</v>
       </c>
       <c r="Y1" s="1">
-        <v>43326</v>
+        <v>43418</v>
       </c>
       <c r="Z1" s="1">
-        <v>43418</v>
+        <v>43510</v>
       </c>
       <c r="AA1" s="1">
-        <v>43510</v>
+        <v>43600</v>
       </c>
       <c r="AB1" s="1">
-        <v>43600</v>
+        <v>43691</v>
       </c>
       <c r="AC1" s="1">
-        <v>43691</v>
+        <v>43783</v>
       </c>
       <c r="AD1" s="1">
-        <v>43783</v>
+        <v>43875</v>
       </c>
       <c r="AE1" s="1">
-        <v>43875</v>
+        <v>43966</v>
       </c>
       <c r="AF1" s="1">
-        <v>43966</v>
+        <v>44068</v>
       </c>
       <c r="AG1" s="1">
-        <v>44068</v>
+        <v>44159</v>
       </c>
       <c r="AH1" s="1">
-        <v>44159</v>
+        <v>44251</v>
       </c>
       <c r="AI1" s="1">
-        <v>44251</v>
+        <v>44341</v>
       </c>
       <c r="AJ1" s="1">
-        <v>44341</v>
+        <v>44432</v>
       </c>
       <c r="AK1" s="1">
-        <v>44432</v>
+        <v>44525</v>
       </c>
       <c r="AL1" s="1">
-        <v>44525</v>
+        <v>44617</v>
       </c>
       <c r="AM1" s="1">
-        <v>44617</v>
+        <v>44706</v>
       </c>
       <c r="AN1" s="1">
-        <v>44706</v>
+        <v>44798</v>
       </c>
       <c r="AO1" s="1">
-        <v>44798</v>
+        <v>44890</v>
       </c>
       <c r="AP1" s="1">
-        <v>44890</v>
+        <v>44981</v>
       </c>
       <c r="AQ1" s="1">
-        <v>44981</v>
+        <v>45071</v>
       </c>
       <c r="AR1" s="1">
-        <v>45071</v>
+        <v>45163</v>
       </c>
       <c r="AS1" s="1">
-        <v>45163</v>
+        <v>45254</v>
       </c>
       <c r="AT1" s="1">
-        <v>45254</v>
+        <v>45345</v>
       </c>
       <c r="AU1" s="1">
-        <v>45345</v>
+        <v>45436</v>
       </c>
       <c r="AV1" s="1">
-        <v>45436</v>
+        <v>45534</v>
       </c>
       <c r="AW1" s="1">
-        <v>45534</v>
+        <v>45618</v>
       </c>
       <c r="AX1" s="1">
-        <v>45618</v>
+        <v>45713</v>
       </c>
       <c r="AY1" s="1">
-        <v>45713</v>
+        <v>45800</v>
       </c>
       <c r="AZ1" s="1">
-        <v>45800</v>
-      </c>
-      <c r="BA1" s="1">
         <v>45891</v>
       </c>
     </row>
-    <row r="2" spans="1:53">
+    <row r="2" spans="1:52">
       <c r="A2" s="1">
         <v>39813</v>
       </c>
     </row>
-    <row r="3" spans="1:53">
+    <row r="3" spans="1:52">
       <c r="A3" s="1">
         <v>40178</v>
       </c>
-      <c r="C3">
-        <v>3.054599347420139</v>
-      </c>
-      <c r="D3">
-        <v>-2.824221650093883</v>
-      </c>
       <c r="E3">
         <v>-3.872359107260159</v>
       </c>
@@ -692,26 +683,11 @@
       <c r="AZ3">
         <v>-3.872359107260159</v>
       </c>
-      <c r="BA3">
-        <v>-3.872359107260159</v>
-      </c>
     </row>
-    <row r="4" spans="1:53">
+    <row r="4" spans="1:52">
       <c r="A4" s="1">
         <v>40543</v>
       </c>
-      <c r="C4">
-        <v>4.219848697716033</v>
-      </c>
-      <c r="D4">
-        <v>-0.2987644528347988</v>
-      </c>
-      <c r="E4">
-        <v>0.6832201941375571</v>
-      </c>
-      <c r="F4">
-        <v>4.063186607895775</v>
-      </c>
       <c r="G4">
         <v>4.530477057343663</v>
       </c>
@@ -850,32 +826,11 @@
       <c r="AZ4">
         <v>4.530477057343663</v>
       </c>
-      <c r="BA4">
-        <v>4.530477057343663</v>
-      </c>
     </row>
-    <row r="5" spans="1:53">
+    <row r="5" spans="1:52">
       <c r="A5" s="1">
         <v>40908</v>
       </c>
-      <c r="C5">
-        <v>3.573204687558973</v>
-      </c>
-      <c r="D5">
-        <v>-1.368437245657539</v>
-      </c>
-      <c r="E5">
-        <v>2.572221908439309</v>
-      </c>
-      <c r="F5">
-        <v>2.727355347077287</v>
-      </c>
-      <c r="G5">
-        <v>6.198184853554634</v>
-      </c>
-      <c r="H5">
-        <v>6.404323597907235</v>
-      </c>
       <c r="I5">
         <v>6.833902841285977</v>
       </c>
@@ -1008,32 +963,11 @@
       <c r="AZ5">
         <v>6.833902841285977</v>
       </c>
-      <c r="BA5">
-        <v>6.833902841285977</v>
-      </c>
     </row>
-    <row r="6" spans="1:53">
+    <row r="6" spans="1:52">
       <c r="A6" s="1">
         <v>41274</v>
       </c>
-      <c r="E6">
-        <v>0.1030482216409112</v>
-      </c>
-      <c r="F6">
-        <v>0.8916286296994258</v>
-      </c>
-      <c r="G6">
-        <v>6.206773438566704</v>
-      </c>
-      <c r="H6">
-        <v>5.302383291204493</v>
-      </c>
-      <c r="I6">
-        <v>6.977693666529272</v>
-      </c>
-      <c r="J6">
-        <v>4.379018979318605</v>
-      </c>
       <c r="K6">
         <v>4.166536506645224</v>
       </c>
@@ -1160,31 +1094,16 @@
       <c r="AZ6">
         <v>4.166536506645224</v>
       </c>
-      <c r="BA6">
-        <v>4.166536506645224</v>
-      </c>
     </row>
-    <row r="7" spans="1:53">
+    <row r="7" spans="1:52">
       <c r="A7" s="1">
         <v>41639</v>
       </c>
-      <c r="G7">
-        <v>3.744063785114071</v>
-      </c>
-      <c r="H7">
-        <v>3.440744488983238</v>
-      </c>
-      <c r="I7">
-        <v>7.315940445634528</v>
-      </c>
-      <c r="J7">
-        <v>5.075268138758093</v>
-      </c>
       <c r="K7">
-        <v>4.580469755461802</v>
+        <v>2.693188401769642</v>
       </c>
       <c r="L7">
-        <v>2.313339498391165</v>
+        <v>1.785377844167058</v>
       </c>
       <c r="M7">
         <v>2.669880057548091</v>
@@ -1306,31 +1225,22 @@
       <c r="AZ7">
         <v>2.669880057548091</v>
       </c>
-      <c r="BA7">
-        <v>2.669880057548091</v>
-      </c>
     </row>
-    <row r="8" spans="1:53">
+    <row r="8" spans="1:52">
       <c r="A8" s="1">
         <v>42004</v>
       </c>
-      <c r="I8">
-        <v>5.144077362254973</v>
-      </c>
-      <c r="J8">
-        <v>3.619663930582706</v>
-      </c>
       <c r="K8">
-        <v>5.097815240151071</v>
+        <v>2.645271874849864</v>
       </c>
       <c r="L8">
-        <v>5.061602744365379</v>
+        <v>2.333075171696652</v>
       </c>
       <c r="M8">
-        <v>5.800035788110924</v>
+        <v>3.947916604971446</v>
       </c>
       <c r="N8">
-        <v>5.973609545413994</v>
+        <v>5.477304442308206</v>
       </c>
       <c r="O8">
         <v>5.50293301232252</v>
@@ -1446,31 +1356,25 @@
       <c r="AZ8">
         <v>5.50293301232252</v>
       </c>
-      <c r="BA8">
-        <v>5.50293301232252</v>
-      </c>
     </row>
-    <row r="9" spans="1:53">
+    <row r="9" spans="1:52">
       <c r="A9" s="1">
         <v>42369</v>
       </c>
-      <c r="K9">
-        <v>3.68364904948868</v>
-      </c>
       <c r="L9">
-        <v>3.432060104325507</v>
+        <v>2.485287125850077</v>
       </c>
       <c r="M9">
-        <v>6.263932416243057</v>
+        <v>2.962902252656407</v>
       </c>
       <c r="N9">
-        <v>6.831975846849869</v>
+        <v>4.052456259163839</v>
       </c>
       <c r="O9">
-        <v>6.575740619085968</v>
+        <v>4.998814576944932</v>
       </c>
       <c r="P9">
-        <v>5.107401516566701</v>
+        <v>4.666532690711245</v>
       </c>
       <c r="Q9">
         <v>4.829481320500406</v>
@@ -1580,31 +1484,25 @@
       <c r="AZ9">
         <v>4.829481320500406</v>
       </c>
-      <c r="BA9">
-        <v>4.829481320500406</v>
-      </c>
     </row>
-    <row r="10" spans="1:53">
+    <row r="10" spans="1:52">
       <c r="A10" s="1">
         <v>42735</v>
       </c>
-      <c r="M10">
-        <v>4.148427751064276</v>
-      </c>
       <c r="N10">
-        <v>4.349040159196571</v>
+        <v>3.340920184406593</v>
       </c>
       <c r="O10">
-        <v>6.455087048682717</v>
+        <v>3.631505712426031</v>
       </c>
       <c r="P10">
-        <v>5.976906056439257</v>
+        <v>3.659383764712709</v>
       </c>
       <c r="Q10">
-        <v>5.637047132432382</v>
+        <v>4.673582741620552</v>
       </c>
       <c r="R10">
-        <v>5.448849700771508</v>
+        <v>5.266214435142658</v>
       </c>
       <c r="S10">
         <v>5.100281927437122</v>
@@ -1708,31 +1606,25 @@
       <c r="AZ10">
         <v>5.100281927437122</v>
       </c>
-      <c r="BA10">
-        <v>5.100281927437122</v>
-      </c>
     </row>
-    <row r="11" spans="1:53">
+    <row r="11" spans="1:52">
       <c r="A11" s="1">
         <v>43100</v>
       </c>
-      <c r="O11">
-        <v>4.482428547653039</v>
-      </c>
       <c r="P11">
-        <v>4.202460928380392</v>
+        <v>3.440590148037836</v>
       </c>
       <c r="Q11">
-        <v>5.036463996850049</v>
+        <v>3.727548887902143</v>
       </c>
       <c r="R11">
-        <v>5.248309031308951</v>
+        <v>4.181342739750682</v>
       </c>
       <c r="S11">
-        <v>4.889825623401545</v>
+        <v>4.372458986620376</v>
       </c>
       <c r="T11">
-        <v>4.890921874850185</v>
+        <v>4.811826107786477</v>
       </c>
       <c r="U11">
         <v>5.161358932333737</v>
@@ -1830,37 +1722,31 @@
       <c r="AZ11">
         <v>5.161358932333737</v>
       </c>
-      <c r="BA11">
-        <v>5.161358932333737</v>
-      </c>
     </row>
-    <row r="12" spans="1:53">
+    <row r="12" spans="1:52">
       <c r="A12" s="1">
         <v>43465</v>
       </c>
-      <c r="Q12">
-        <v>4.02963445732154</v>
-      </c>
       <c r="R12">
-        <v>4.525831693707594</v>
+        <v>3.739696329963826</v>
       </c>
       <c r="S12">
-        <v>4.641906853884126</v>
+        <v>3.811371521453566</v>
       </c>
       <c r="T12">
-        <v>4.906051836781322</v>
+        <v>4.131858242365549</v>
       </c>
       <c r="U12">
-        <v>5.261684900217256</v>
+        <v>4.927320050172312</v>
       </c>
       <c r="V12">
-        <v>5.938036641950228</v>
+        <v>6.022380124455107</v>
       </c>
       <c r="W12">
-        <v>5.910776580333765</v>
+        <v>5.91185619417105</v>
       </c>
       <c r="X12">
-        <v>5.903240711112856</v>
+        <v>5.904095356703798</v>
       </c>
       <c r="Y12">
         <v>5.902681694119694</v>
@@ -1946,46 +1832,37 @@
       <c r="AZ12">
         <v>5.902681694119694</v>
       </c>
-      <c r="BA12">
-        <v>5.902681694119694</v>
-      </c>
     </row>
-    <row r="13" spans="1:53">
+    <row r="13" spans="1:52">
       <c r="A13" s="1">
         <v>43830</v>
       </c>
-      <c r="R13">
-        <v>3.996708251062353</v>
-      </c>
-      <c r="S13">
-        <v>3.983918911847528</v>
-      </c>
       <c r="T13">
-        <v>4.666540845213407</v>
+        <v>3.820091478010124</v>
       </c>
       <c r="U13">
-        <v>4.610933899165515</v>
+        <v>4.008649937605258</v>
       </c>
       <c r="V13">
-        <v>4.997363337233529</v>
+        <v>4.474956658559948</v>
       </c>
       <c r="W13">
-        <v>4.737510621186813</v>
+        <v>4.365509285986957</v>
       </c>
       <c r="X13">
-        <v>4.751894620017949</v>
+        <v>4.348199743880454</v>
       </c>
       <c r="Y13">
-        <v>4.808207293463118</v>
+        <v>4.339089271348406</v>
       </c>
       <c r="Z13">
-        <v>3.844372712434674</v>
+        <v>3.109393707322261</v>
       </c>
       <c r="AA13">
-        <v>4.754217134270533</v>
+        <v>5.114185474093769</v>
       </c>
       <c r="AB13">
-        <v>3.937486382457855</v>
+        <v>3.799522169175473</v>
       </c>
       <c r="AC13">
         <v>3.884502719230132</v>
@@ -2059,52 +1936,40 @@
       <c r="AZ13">
         <v>3.884502719230132</v>
       </c>
-      <c r="BA13">
-        <v>3.884502719230132</v>
-      </c>
     </row>
-    <row r="14" spans="1:53">
+    <row r="14" spans="1:52">
       <c r="A14" s="1">
         <v>44196</v>
       </c>
-      <c r="T14">
-        <v>4.072057891822478</v>
-      </c>
-      <c r="U14">
-        <v>4.107765429471932</v>
-      </c>
-      <c r="V14">
-        <v>4.774407257479774</v>
-      </c>
       <c r="W14">
-        <v>4.569515004951397</v>
+        <v>4.068292396573447</v>
       </c>
       <c r="X14">
-        <v>4.697292064920644</v>
+        <v>4.064249335444647</v>
       </c>
       <c r="Y14">
-        <v>4.223922367478816</v>
+        <v>4.061783456606083</v>
       </c>
       <c r="Z14">
-        <v>4.236953953506029</v>
+        <v>3.558392386986431</v>
       </c>
       <c r="AA14">
-        <v>4.502492156165561</v>
+        <v>5.472991335528654</v>
       </c>
       <c r="AB14">
-        <v>3.718398465425499</v>
+        <v>2.778402897289434</v>
       </c>
       <c r="AC14">
-        <v>3.575675711572068</v>
+        <v>3.243024666552685</v>
       </c>
       <c r="AD14">
-        <v>3.666264665660224</v>
+        <v>3.662599762249985</v>
       </c>
       <c r="AE14">
-        <v>2.026619269503116</v>
+        <v>2.167530781895133</v>
       </c>
       <c r="AF14">
-        <v>-4.007669511185885</v>
+        <v>-3.840397826549158</v>
       </c>
       <c r="AG14">
         <v>-3.840397826549158</v>
@@ -2166,58 +2031,40 @@
       <c r="AZ14">
         <v>-3.840397826549158</v>
       </c>
-      <c r="BA14">
-        <v>-3.840397826549158</v>
-      </c>
     </row>
-    <row r="15" spans="1:53">
+    <row r="15" spans="1:52">
       <c r="A15" s="1">
         <v>44561</v>
       </c>
-      <c r="V15">
-        <v>4.26813131465309</v>
-      </c>
-      <c r="W15">
-        <v>4.196288636096579</v>
-      </c>
-      <c r="X15">
-        <v>4.228239789408517</v>
-      </c>
-      <c r="Y15">
-        <v>3.926306947836466</v>
-      </c>
-      <c r="Z15">
-        <v>3.916795070709855</v>
-      </c>
       <c r="AA15">
-        <v>3.927912441193326</v>
+        <v>4.3251972476954</v>
       </c>
       <c r="AB15">
-        <v>3.905867097986926</v>
+        <v>3.697876398956845</v>
       </c>
       <c r="AC15">
-        <v>3.747149913471337</v>
+        <v>3.821848639644654</v>
       </c>
       <c r="AD15">
-        <v>3.865624738500362</v>
+        <v>3.993000457359908</v>
       </c>
       <c r="AE15">
-        <v>4.521126324859415</v>
+        <v>2.573593955528963</v>
       </c>
       <c r="AF15">
-        <v>4.894792862113562</v>
+        <v>-5.097705497973837</v>
       </c>
       <c r="AG15">
-        <v>4.713777840658673</v>
+        <v>0.2915162802050064</v>
       </c>
       <c r="AH15">
-        <v>2.375052641466335</v>
+        <v>-0.1964516829170981</v>
       </c>
       <c r="AI15">
-        <v>1.212304829517796</v>
+        <v>0.5766229317536675</v>
       </c>
       <c r="AJ15">
-        <v>1.488248808663228</v>
+        <v>0.4839811651348835</v>
       </c>
       <c r="AK15">
         <v>0.4839811651348835</v>
@@ -2267,61 +2114,40 @@
       <c r="AZ15">
         <v>0.4839811651348835</v>
       </c>
-      <c r="BA15">
-        <v>0.4839811651348835</v>
-      </c>
     </row>
-    <row r="16" spans="1:53">
+    <row r="16" spans="1:52">
       <c r="A16" s="1">
         <v>44926</v>
       </c>
-      <c r="Y16">
-        <v>4.67205713376706</v>
-      </c>
-      <c r="Z16">
-        <v>4.600854126410603</v>
-      </c>
-      <c r="AA16">
-        <v>4.673745826883757</v>
-      </c>
-      <c r="AB16">
-        <v>4.543954271828698</v>
-      </c>
-      <c r="AC16">
-        <v>3.950654115884777</v>
-      </c>
-      <c r="AD16">
-        <v>3.989860935761769</v>
-      </c>
       <c r="AE16">
-        <v>4.090651237611298</v>
+        <v>3.611184095477427</v>
       </c>
       <c r="AF16">
-        <v>4.891835383827048</v>
+        <v>2.886023217910982</v>
       </c>
       <c r="AG16">
-        <v>6.137296471727405</v>
+        <v>3.326152731537801</v>
       </c>
       <c r="AH16">
-        <v>8.664720953958117</v>
+        <v>3.329288211255621</v>
       </c>
       <c r="AI16">
-        <v>9.298746984139195</v>
+        <v>4.059584075094214</v>
       </c>
       <c r="AJ16">
-        <v>8.604279583650509</v>
+        <v>3.96063514023246</v>
       </c>
       <c r="AK16">
-        <v>6.8272105562736</v>
+        <v>3.818597641626909</v>
       </c>
       <c r="AL16">
-        <v>4.93373128372403</v>
+        <v>2.256289400228262</v>
       </c>
       <c r="AM16">
-        <v>2.236851357693292</v>
+        <v>2.288114387968587</v>
       </c>
       <c r="AN16">
-        <v>2.395586567457175</v>
+        <v>2.06342951900429</v>
       </c>
       <c r="AO16">
         <v>2.06342951900429</v>
@@ -2359,61 +2185,43 @@
       <c r="AZ16">
         <v>2.06342951900429</v>
       </c>
-      <c r="BA16">
-        <v>2.06342951900429</v>
-      </c>
     </row>
-    <row r="17" spans="1:53">
+    <row r="17" spans="1:52">
       <c r="A17" s="1">
         <v>45291</v>
       </c>
-      <c r="AC17">
-        <v>4.582925831119589</v>
-      </c>
-      <c r="AD17">
-        <v>4.607783027215717</v>
-      </c>
-      <c r="AE17">
-        <v>4.648936282154592</v>
-      </c>
-      <c r="AF17">
-        <v>4.400727932034187</v>
-      </c>
-      <c r="AG17">
-        <v>4.031934062334086</v>
-      </c>
       <c r="AH17">
-        <v>4.177181739684444</v>
+        <v>3.609018489846649</v>
       </c>
       <c r="AI17">
-        <v>4.247377562506571</v>
+        <v>3.986415474950133</v>
       </c>
       <c r="AJ17">
-        <v>4.201761734921394</v>
+        <v>4.070233822115887</v>
       </c>
       <c r="AK17">
-        <v>4.192956011430327</v>
+        <v>4.005364784137089</v>
       </c>
       <c r="AL17">
-        <v>7.069303118256975</v>
+        <v>3.516729866534796</v>
       </c>
       <c r="AM17">
-        <v>3.947999343926734</v>
+        <v>3.463553906111505</v>
       </c>
       <c r="AN17">
-        <v>3.99549438235165</v>
+        <v>3.020376488332777</v>
       </c>
       <c r="AO17">
-        <v>1.963784470256713</v>
+        <v>0.6985632195332103</v>
       </c>
       <c r="AP17">
-        <v>-0.2251249147054546</v>
+        <v>-1.252226393550548</v>
       </c>
       <c r="AQ17">
-        <v>-1.499586570365474</v>
+        <v>-2.013802094285932</v>
       </c>
       <c r="AR17">
-        <v>-2.158581765635204</v>
+        <v>-2.156362896191677</v>
       </c>
       <c r="AS17">
         <v>-2.156362896191677</v>
@@ -2439,61 +2247,43 @@
       <c r="AZ17">
         <v>-2.156362896191677</v>
       </c>
-      <c r="BA17">
-        <v>-2.156362896191677</v>
-      </c>
     </row>
-    <row r="18" spans="1:53">
+    <row r="18" spans="1:52">
       <c r="A18" s="1">
         <v>45657</v>
       </c>
-      <c r="AG18">
-        <v>4.227079647868393</v>
-      </c>
-      <c r="AH18">
-        <v>4.246041179752447</v>
-      </c>
-      <c r="AI18">
-        <v>4.210309592600758</v>
-      </c>
-      <c r="AJ18">
-        <v>4.175340409876593</v>
-      </c>
-      <c r="AK18">
-        <v>3.712153001237839</v>
-      </c>
       <c r="AL18">
-        <v>3.802601096967084</v>
+        <v>3.760507616306352</v>
       </c>
       <c r="AM18">
-        <v>3.518192087762362</v>
+        <v>3.682507129655721</v>
       </c>
       <c r="AN18">
-        <v>3.51914174615835</v>
+        <v>3.56397847269323</v>
       </c>
       <c r="AO18">
-        <v>4.940182765992751</v>
+        <v>3.536448755237465</v>
       </c>
       <c r="AP18">
-        <v>4.053451482406034</v>
+        <v>2.967032781824974</v>
       </c>
       <c r="AQ18">
-        <v>4.436084942495122</v>
+        <v>2.374210810973465</v>
       </c>
       <c r="AR18">
-        <v>3.750193614401542</v>
+        <v>2.034789645219792</v>
       </c>
       <c r="AS18">
-        <v>2.091147464428778</v>
+        <v>0.3452735157291054</v>
       </c>
       <c r="AT18">
-        <v>0.4555597068876871</v>
+        <v>-0.4399034310282546</v>
       </c>
       <c r="AU18">
-        <v>-0.6569152576540782</v>
+        <v>-0.5865622195987186</v>
       </c>
       <c r="AV18">
-        <v>-0.4507701807948239</v>
+        <v>-0.8205034771073372</v>
       </c>
       <c r="AW18">
         <v>-0.8205034771073372</v>
@@ -2507,173 +2297,88 @@
       <c r="AZ18">
         <v>-0.8205034771073372</v>
       </c>
-      <c r="BA18">
-        <v>-0.8205034771073372</v>
-      </c>
     </row>
-    <row r="19" spans="1:53">
+    <row r="19" spans="1:52">
       <c r="A19" s="1">
         <v>46022</v>
       </c>
-      <c r="AK19">
-        <v>3.789689380113814</v>
-      </c>
-      <c r="AL19">
-        <v>3.879320593192714</v>
-      </c>
-      <c r="AM19">
-        <v>3.381054630838864</v>
-      </c>
-      <c r="AN19">
-        <v>3.398171277053064</v>
-      </c>
-      <c r="AO19">
-        <v>3.91350016354266</v>
-      </c>
       <c r="AP19">
-        <v>3.305061302826551</v>
+        <v>3.09315248055646</v>
       </c>
       <c r="AQ19">
-        <v>3.549894882246463</v>
+        <v>2.882309658311133</v>
       </c>
       <c r="AR19">
-        <v>3.958895208222701</v>
+        <v>2.766021357981341</v>
       </c>
       <c r="AS19">
-        <v>3.693499302747405</v>
+        <v>2.78143375956188</v>
       </c>
       <c r="AT19">
-        <v>4.469897336389028</v>
+        <v>2.563033601911258</v>
       </c>
       <c r="AU19">
-        <v>3.809034848488446</v>
+        <v>2.431929210693595</v>
       </c>
       <c r="AV19">
-        <v>3.710266040086396</v>
+        <v>1.969879323458756</v>
       </c>
       <c r="AW19">
-        <v>1.76827631783818</v>
+        <v>1.5902148106679</v>
       </c>
       <c r="AX19">
-        <v>1.268511207459633</v>
+        <v>1.06642809951869</v>
       </c>
       <c r="AY19">
-        <v>0.468579753809073</v>
+        <v>0.7174582534189566</v>
       </c>
       <c r="AZ19">
-        <v>0.5756371110930525</v>
-      </c>
-      <c r="BA19">
         <v>0.5750555200350504</v>
       </c>
     </row>
-    <row r="20" spans="1:53">
+    <row r="20" spans="1:52">
       <c r="A20" s="1">
         <v>46387</v>
       </c>
-      <c r="AO20">
-        <v>3.410122147237171</v>
-      </c>
-      <c r="AP20">
-        <v>3.127246227629787</v>
-      </c>
-      <c r="AQ20">
-        <v>3.071332416727279</v>
-      </c>
-      <c r="AR20">
-        <v>2.98352770195931</v>
-      </c>
-      <c r="AS20">
-        <v>3.35408712408265</v>
-      </c>
       <c r="AT20">
-        <v>3.542460474401787</v>
+        <v>2.563366019058777</v>
       </c>
       <c r="AU20">
-        <v>3.477859369316993</v>
+        <v>2.504121079667554</v>
       </c>
       <c r="AV20">
-        <v>2.269142238924982</v>
+        <v>2.443641768759997</v>
       </c>
       <c r="AW20">
-        <v>2.772948416451326</v>
+        <v>2.486647245574192</v>
       </c>
       <c r="AX20">
-        <v>2.265109330203541</v>
+        <v>2.36642828939615</v>
       </c>
       <c r="AY20">
-        <v>0.116859699208427</v>
+        <v>2.061048937680932</v>
       </c>
       <c r="AZ20">
-        <v>0.5339625944420057</v>
-      </c>
-      <c r="BA20">
-        <v>0.5328865284840001</v>
+        <v>1.743520202089877</v>
       </c>
     </row>
-    <row r="21" spans="1:53">
+    <row r="21" spans="1:52">
       <c r="A21" s="1">
         <v>46752</v>
       </c>
-      <c r="AS21">
-        <v>2.744648637761493</v>
-      </c>
-      <c r="AT21">
-        <v>2.679214373316374</v>
-      </c>
-      <c r="AU21">
-        <v>2.526806827547134</v>
-      </c>
-      <c r="AV21">
-        <v>2.498417324294167</v>
-      </c>
-      <c r="AW21">
-        <v>2.328671313850483</v>
-      </c>
       <c r="AX21">
-        <v>2.021725370124838</v>
+        <v>2.426007325961343</v>
       </c>
       <c r="AY21">
-        <v>0.9506515240671032</v>
+        <v>2.299181762574065</v>
       </c>
       <c r="AZ21">
-        <v>1.08295731733199</v>
-      </c>
-      <c r="BA21">
-        <v>0.6937874061174965</v>
+        <v>2.212342084209817</v>
       </c>
     </row>
-    <row r="22" spans="1:53">
+    <row r="22" spans="1:52">
       <c r="A22" s="1">
         <v>47118</v>
-      </c>
-      <c r="AW22">
-        <v>2.088300375537289</v>
-      </c>
-      <c r="AX22">
-        <v>1.987687412040917</v>
-      </c>
-      <c r="AY22">
-        <v>1.695690439350739</v>
-      </c>
-      <c r="AZ22">
-        <v>1.746672755278955</v>
-      </c>
-      <c r="BA22">
-        <v>1.231739806780996</v>
-      </c>
-    </row>
-    <row r="23" spans="1:53">
-      <c r="A23" s="1">
-        <v>47483</v>
-      </c>
-      <c r="BA23">
-        <v>1.402230672406923</v>
-      </c>
-    </row>
-    <row r="24" spans="1:53">
-      <c r="A24" s="1">
-        <v>47848</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_IMPORT_AR_50_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_IMPORT_AR_50_9.xlsx
@@ -2332,7 +2332,7 @@
         <v>-0.9913189363815245</v>
       </c>
       <c r="AG17">
-        <v>-7.578477024949737</v>
+        <v>-10.53914413005148</v>
       </c>
       <c r="AH17">
         <v>-7.260793671746435</v>
@@ -2415,19 +2415,19 @@
         <v>1.183532150252908</v>
       </c>
       <c r="AG18">
-        <v>-5.743787238149123</v>
+        <v>-22.18666085538521</v>
       </c>
       <c r="AH18">
-        <v>0.00562230452727519</v>
+        <v>-5.080986607234472</v>
       </c>
       <c r="AI18">
-        <v>0.4989366167094333</v>
+        <v>1.081256150698318</v>
       </c>
       <c r="AJ18">
-        <v>4.507091823899212</v>
+        <v>3.422728847591983</v>
       </c>
       <c r="AK18">
-        <v>4.379227219808146</v>
+        <v>4.452339552778994</v>
       </c>
       <c r="AL18">
         <v>4.097586525396268</v>
@@ -2486,31 +2486,31 @@
         <v>2.59773147328235</v>
       </c>
       <c r="AG19">
-        <v>1.941301791449823</v>
+        <v>-5.595609256595202</v>
       </c>
       <c r="AH19">
-        <v>2.601816596532158</v>
+        <v>2.098997457038321</v>
       </c>
       <c r="AI19">
-        <v>2.690694906265412</v>
+        <v>2.50672470508142</v>
       </c>
       <c r="AJ19">
-        <v>5.429743376942153</v>
+        <v>4.159769430572657</v>
       </c>
       <c r="AK19">
-        <v>4.954652839642848</v>
+        <v>5.224501267457948</v>
       </c>
       <c r="AL19">
-        <v>3.9116372951149</v>
+        <v>4.326582230384801</v>
       </c>
       <c r="AM19">
-        <v>7.041577295022128</v>
+        <v>8.52901436454767</v>
       </c>
       <c r="AN19">
-        <v>8.053468068361846</v>
+        <v>7.61654136842036</v>
       </c>
       <c r="AO19">
-        <v>7.397318165265498</v>
+        <v>7.551356180977131</v>
       </c>
       <c r="AP19">
         <v>7.824284864703746</v>
@@ -2553,38 +2553,35 @@
       <c r="A20" s="1">
         <v>45291</v>
       </c>
-      <c r="AI20">
-        <v>3.077123029105788</v>
-      </c>
       <c r="AJ20">
-        <v>4.110325245194524</v>
+        <v>3.501510988756174</v>
       </c>
       <c r="AK20">
-        <v>3.927791450785945</v>
+        <v>4.09139337559612</v>
       </c>
       <c r="AL20">
-        <v>3.958108733964716</v>
+        <v>3.854154284621125</v>
       </c>
       <c r="AM20">
-        <v>3.388682041315016</v>
+        <v>4.183355795188803</v>
       </c>
       <c r="AN20">
-        <v>3.974997080343634</v>
+        <v>3.875399348087094</v>
       </c>
       <c r="AO20">
-        <v>3.367096865515662</v>
+        <v>3.739387868238064</v>
       </c>
       <c r="AP20">
-        <v>2.586378346096296</v>
+        <v>5.010954047212612</v>
       </c>
       <c r="AQ20">
-        <v>0.9995490351194292</v>
+        <v>2.839863250679464</v>
       </c>
       <c r="AR20">
-        <v>0.2714278794373248</v>
+        <v>0.7753820538246803</v>
       </c>
       <c r="AS20">
-        <v>-0.3046246622258053</v>
+        <v>-0.2318687624372262</v>
       </c>
       <c r="AT20">
         <v>-1.24502235313334</v>
@@ -2615,38 +2612,35 @@
       <c r="A21" s="1">
         <v>45657</v>
       </c>
-      <c r="AM21">
-        <v>3.861203029322557</v>
-      </c>
       <c r="AN21">
-        <v>3.640537183944725</v>
+        <v>3.939468080786535</v>
       </c>
       <c r="AO21">
-        <v>3.526257381249898</v>
+        <v>3.58634143761003</v>
       </c>
       <c r="AP21">
-        <v>3.588945373473096</v>
+        <v>3.698222818333829</v>
       </c>
       <c r="AQ21">
-        <v>2.834404338648921</v>
+        <v>3.553794453012871</v>
       </c>
       <c r="AR21">
-        <v>2.460471645027118</v>
+        <v>2.989319424861114</v>
       </c>
       <c r="AS21">
-        <v>1.976476469605681</v>
+        <v>2.206586811141542</v>
       </c>
       <c r="AT21">
-        <v>-1.561801765212567</v>
+        <v>0.5676719215572001</v>
       </c>
       <c r="AU21">
-        <v>-2.798317913999848</v>
+        <v>-2.046429762218094</v>
       </c>
       <c r="AV21">
-        <v>-2.107534670984712</v>
+        <v>-2.17916173717011</v>
       </c>
       <c r="AW21">
-        <v>-2.567041707495976</v>
+        <v>-2.319665112315228</v>
       </c>
       <c r="AX21">
         <v>-1.735114423676209</v>
@@ -2665,78 +2659,69 @@
       <c r="A22" s="1">
         <v>46022</v>
       </c>
-      <c r="AQ22">
-        <v>3.159608575513939</v>
-      </c>
       <c r="AR22">
-        <v>3.056116497688111</v>
+        <v>3.211600998495756</v>
       </c>
       <c r="AS22">
-        <v>2.903974814839194</v>
+        <v>2.996475812035015</v>
       </c>
       <c r="AT22">
-        <v>2.651532166131387</v>
+        <v>2.71385060977023</v>
       </c>
       <c r="AU22">
-        <v>2.363509743917169</v>
+        <v>2.615718196935091</v>
       </c>
       <c r="AV22">
-        <v>2.747596279389564</v>
+        <v>2.618356875591199</v>
       </c>
       <c r="AW22">
-        <v>1.835066812373642</v>
+        <v>2.445734351032636</v>
       </c>
       <c r="AX22">
-        <v>2.409056355286521</v>
+        <v>2.806286889124965</v>
       </c>
       <c r="AY22">
-        <v>2.450219408996213</v>
+        <v>2.991102431236192</v>
       </c>
       <c r="AZ22">
-        <v>1.552685227480533</v>
+        <v>1.847721869714491</v>
       </c>
       <c r="BA22">
-        <v>2.64031107104763</v>
+        <v>2.704857934901916</v>
       </c>
     </row>
     <row r="23" spans="1:53">
       <c r="A23" s="1">
         <v>46387</v>
       </c>
-      <c r="AU23">
-        <v>2.477298037667053</v>
-      </c>
       <c r="AV23">
-        <v>2.689017421867468</v>
+        <v>2.602742958112625</v>
       </c>
       <c r="AW23">
-        <v>2.64421435169262</v>
+        <v>2.648174442814999</v>
       </c>
       <c r="AX23">
-        <v>2.824617536471985</v>
+        <v>2.791244746056099</v>
       </c>
       <c r="AY23">
-        <v>2.677741483899121</v>
+        <v>2.871978646219042</v>
       </c>
       <c r="AZ23">
-        <v>2.496145622272206</v>
+        <v>2.81747164028272</v>
       </c>
       <c r="BA23">
-        <v>3.123685491361705</v>
+        <v>3.343276078818591</v>
       </c>
     </row>
     <row r="24" spans="1:53">
       <c r="A24" s="1">
         <v>46752</v>
       </c>
-      <c r="AY24">
-        <v>2.800311958373136</v>
-      </c>
       <c r="AZ24">
-        <v>2.626258445784391</v>
+        <v>2.731254939036254</v>
       </c>
       <c r="BA24">
-        <v>2.67903825298359</v>
+        <v>2.784749964856847</v>
       </c>
     </row>
     <row r="25" spans="1:53">

--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_IMPORT_AR_50_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_IMPORT_AR_50_9.xlsx
@@ -369,7 +369,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA25"/>
+  <dimension ref="A1:BA22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -535,2197 +535,1876 @@
     </row>
     <row r="2" spans="1:53">
       <c r="A2" s="1">
-        <v>38717</v>
+        <v>39813</v>
       </c>
     </row>
     <row r="3" spans="1:53">
       <c r="A3" s="1">
-        <v>39082</v>
+        <v>40178</v>
+      </c>
+      <c r="F3">
+        <v>-7.266312015249799</v>
+      </c>
+      <c r="G3">
+        <v>-7.392716344398065</v>
+      </c>
+      <c r="H3">
+        <v>-7.829486332896607</v>
+      </c>
+      <c r="I3">
+        <v>-7.964411665641935</v>
+      </c>
+      <c r="J3">
+        <v>-7.864097658617908</v>
+      </c>
+      <c r="K3">
+        <v>-7.864097658617908</v>
+      </c>
+      <c r="L3">
+        <v>-7.864097658617908</v>
+      </c>
+      <c r="M3">
+        <v>-7.864097658617908</v>
+      </c>
+      <c r="N3">
+        <v>-7.864097658617908</v>
+      </c>
+      <c r="O3">
+        <v>-7.864097658617908</v>
+      </c>
+      <c r="P3">
+        <v>-7.864097658617908</v>
+      </c>
+      <c r="Q3">
+        <v>-7.864097658617908</v>
+      </c>
+      <c r="R3">
+        <v>-7.864097658617908</v>
+      </c>
+      <c r="S3">
+        <v>-7.864097658617908</v>
+      </c>
+      <c r="T3">
+        <v>-7.864097658617908</v>
+      </c>
+      <c r="U3">
+        <v>-7.864097658617908</v>
+      </c>
+      <c r="V3">
+        <v>-7.864097658617908</v>
+      </c>
+      <c r="W3">
+        <v>-7.864097658617908</v>
+      </c>
+      <c r="X3">
+        <v>-7.864097658617908</v>
+      </c>
+      <c r="Y3">
+        <v>-7.864097658617908</v>
+      </c>
+      <c r="Z3">
+        <v>-7.864097658617908</v>
+      </c>
+      <c r="AA3">
+        <v>-7.864097658617908</v>
+      </c>
+      <c r="AB3">
+        <v>-7.864097658617908</v>
+      </c>
+      <c r="AC3">
+        <v>-7.864097658617908</v>
+      </c>
+      <c r="AD3">
+        <v>-7.864097658617908</v>
+      </c>
+      <c r="AE3">
+        <v>-7.864097658617908</v>
+      </c>
+      <c r="AF3">
+        <v>-7.864097658617908</v>
+      </c>
+      <c r="AG3">
+        <v>-7.864097658617908</v>
+      </c>
+      <c r="AH3">
+        <v>-7.864097658617908</v>
+      </c>
+      <c r="AI3">
+        <v>-7.864097658617908</v>
+      </c>
+      <c r="AJ3">
+        <v>-7.864097658617908</v>
+      </c>
+      <c r="AK3">
+        <v>-7.864097658617908</v>
+      </c>
+      <c r="AL3">
+        <v>-7.864097658617908</v>
+      </c>
+      <c r="AM3">
+        <v>-7.864097658617908</v>
+      </c>
+      <c r="AN3">
+        <v>-7.864097658617908</v>
+      </c>
+      <c r="AO3">
+        <v>-7.864097658617908</v>
+      </c>
+      <c r="AP3">
+        <v>-7.864097658617908</v>
+      </c>
+      <c r="AQ3">
+        <v>-7.864097658617908</v>
+      </c>
+      <c r="AR3">
+        <v>-7.864097658617908</v>
+      </c>
+      <c r="AS3">
+        <v>-7.864097658617908</v>
+      </c>
+      <c r="AT3">
+        <v>-7.864097658617908</v>
+      </c>
+      <c r="AU3">
+        <v>-7.864097658617908</v>
+      </c>
+      <c r="AV3">
+        <v>-7.864097658617908</v>
+      </c>
+      <c r="AW3">
+        <v>-7.864097658617908</v>
+      </c>
+      <c r="AX3">
+        <v>-7.864097658617908</v>
+      </c>
+      <c r="AY3">
+        <v>-7.864097658617908</v>
+      </c>
+      <c r="AZ3">
+        <v>-7.864097658617908</v>
+      </c>
+      <c r="BA3">
+        <v>-7.864097658617908</v>
       </c>
     </row>
     <row r="4" spans="1:53">
       <c r="A4" s="1">
-        <v>39447</v>
-      </c>
-      <c r="B4">
-        <v>7.226520411029069</v>
-      </c>
-      <c r="C4">
-        <v>6.680949307701356</v>
-      </c>
-      <c r="D4">
-        <v>7.264603558669802</v>
-      </c>
-      <c r="E4">
-        <v>7.264603558669802</v>
-      </c>
-      <c r="F4">
-        <v>7.095684514498179</v>
+        <v>40543</v>
       </c>
       <c r="G4">
-        <v>7.095684514498224</v>
+        <v>3.184002331674152</v>
       </c>
       <c r="H4">
-        <v>7.095684514498224</v>
+        <v>6.958243460951929</v>
       </c>
       <c r="I4">
-        <v>7.095684514498224</v>
+        <v>6.645187828014643</v>
       </c>
       <c r="J4">
-        <v>7.095684514498224</v>
+        <v>5.795450196953511</v>
       </c>
       <c r="K4">
-        <v>7.095684514498224</v>
+        <v>5.795450196953511</v>
       </c>
       <c r="L4">
-        <v>7.095684514498224</v>
+        <v>5.172294413915957</v>
       </c>
       <c r="M4">
-        <v>7.095684514498224</v>
+        <v>5.172294413915957</v>
       </c>
       <c r="N4">
-        <v>7.095684514498224</v>
+        <v>5.172294413915957</v>
       </c>
       <c r="O4">
-        <v>7.095684514498224</v>
+        <v>5.172294413915957</v>
       </c>
       <c r="P4">
-        <v>7.095684514498224</v>
+        <v>5.172294413915957</v>
       </c>
       <c r="Q4">
-        <v>7.095684514498224</v>
+        <v>5.172294413915957</v>
       </c>
       <c r="R4">
-        <v>7.095684514498224</v>
+        <v>5.172294413915957</v>
       </c>
       <c r="S4">
-        <v>7.095684514498224</v>
+        <v>5.172294413915957</v>
       </c>
       <c r="T4">
-        <v>7.095684514498224</v>
+        <v>5.172294413915957</v>
       </c>
       <c r="U4">
-        <v>7.095684514498224</v>
+        <v>5.172294413915957</v>
       </c>
       <c r="V4">
-        <v>7.095684514498224</v>
+        <v>5.172294413915957</v>
       </c>
       <c r="W4">
-        <v>7.095684514498224</v>
+        <v>5.172294413915957</v>
       </c>
       <c r="X4">
-        <v>7.095684514498224</v>
+        <v>5.172294413915957</v>
       </c>
       <c r="Y4">
-        <v>7.095684514498224</v>
+        <v>5.172294413915957</v>
       </c>
       <c r="Z4">
-        <v>7.095684514498224</v>
+        <v>5.172294413915957</v>
       </c>
       <c r="AA4">
-        <v>7.095684514498224</v>
+        <v>5.172294413915957</v>
       </c>
       <c r="AB4">
-        <v>7.095684514498224</v>
+        <v>5.172294413915957</v>
       </c>
       <c r="AC4">
-        <v>7.095684514498224</v>
+        <v>5.172294413915957</v>
       </c>
       <c r="AD4">
-        <v>7.095684514498224</v>
+        <v>5.172294413915957</v>
       </c>
       <c r="AE4">
-        <v>7.095684514498224</v>
+        <v>5.172294413915957</v>
       </c>
       <c r="AF4">
-        <v>7.095684514498224</v>
+        <v>5.172294413915957</v>
       </c>
       <c r="AG4">
-        <v>7.095684514498224</v>
+        <v>5.172294413915957</v>
       </c>
       <c r="AH4">
-        <v>7.095684514498224</v>
+        <v>5.172294413915957</v>
       </c>
       <c r="AI4">
-        <v>7.095684514498224</v>
+        <v>5.172294413915957</v>
       </c>
       <c r="AJ4">
-        <v>7.095684514498224</v>
+        <v>5.172294413915957</v>
       </c>
       <c r="AK4">
-        <v>7.095684514498224</v>
+        <v>5.172294413915957</v>
       </c>
       <c r="AL4">
-        <v>7.095684514498224</v>
+        <v>5.172294413915957</v>
       </c>
       <c r="AM4">
-        <v>7.095684514498224</v>
+        <v>5.172294413915957</v>
       </c>
       <c r="AN4">
-        <v>7.095684514498224</v>
+        <v>5.172294413915957</v>
       </c>
       <c r="AO4">
-        <v>7.095684514498224</v>
+        <v>5.172294413915957</v>
       </c>
       <c r="AP4">
-        <v>7.095684514498224</v>
+        <v>5.172294413915957</v>
       </c>
       <c r="AQ4">
-        <v>7.095684514498224</v>
+        <v>5.172294413915957</v>
       </c>
       <c r="AR4">
-        <v>7.095684514498224</v>
+        <v>5.172294413915957</v>
       </c>
       <c r="AS4">
-        <v>7.095684514498224</v>
+        <v>5.172294413915957</v>
       </c>
       <c r="AT4">
-        <v>7.095684514498224</v>
+        <v>5.172294413915957</v>
       </c>
       <c r="AU4">
-        <v>7.095684514498224</v>
+        <v>5.172294413915957</v>
       </c>
       <c r="AV4">
-        <v>7.095684514498224</v>
+        <v>5.172294413915957</v>
       </c>
       <c r="AW4">
-        <v>7.095684514498224</v>
+        <v>5.172294413915957</v>
       </c>
       <c r="AX4">
-        <v>7.095684514498224</v>
+        <v>5.172294413915957</v>
       </c>
       <c r="AY4">
-        <v>7.095684514498224</v>
+        <v>5.172294413915957</v>
       </c>
       <c r="AZ4">
-        <v>7.095684514498224</v>
+        <v>5.172294413915957</v>
       </c>
       <c r="BA4">
-        <v>7.095684514498224</v>
+        <v>5.172294413915957</v>
       </c>
     </row>
     <row r="5" spans="1:53">
       <c r="A5" s="1">
-        <v>39813</v>
-      </c>
-      <c r="D5">
-        <v>4.268860212333636</v>
-      </c>
-      <c r="E5">
-        <v>4.25289386958061</v>
-      </c>
-      <c r="F5">
-        <v>4.368079871693054</v>
+        <v>40908</v>
       </c>
       <c r="G5">
-        <v>4.368079871693031</v>
+        <v>6.704254199558157</v>
       </c>
       <c r="H5">
-        <v>3.210190562558712</v>
+        <v>12.2165830639507</v>
       </c>
       <c r="I5">
-        <v>3.210190562558712</v>
+        <v>8.626810748872305</v>
       </c>
       <c r="J5">
-        <v>3.210190562558712</v>
+        <v>9.469137444079955</v>
       </c>
       <c r="K5">
-        <v>3.210190562558712</v>
+        <v>9.856384149233444</v>
       </c>
       <c r="L5">
-        <v>3.210190562558712</v>
+        <v>9.359115278856267</v>
       </c>
       <c r="M5">
-        <v>3.210190562558712</v>
+        <v>9.359115278856267</v>
       </c>
       <c r="N5">
-        <v>3.210190562558712</v>
+        <v>9.075100657941459</v>
       </c>
       <c r="O5">
-        <v>3.210190562558712</v>
+        <v>9.075100657941459</v>
       </c>
       <c r="P5">
-        <v>3.210190562558712</v>
+        <v>9.075100657941459</v>
       </c>
       <c r="Q5">
-        <v>3.210190562558712</v>
+        <v>9.075100657941459</v>
       </c>
       <c r="R5">
-        <v>3.210190562558712</v>
+        <v>9.075100657941459</v>
       </c>
       <c r="S5">
-        <v>3.210190562558712</v>
+        <v>9.075100657941459</v>
       </c>
       <c r="T5">
-        <v>3.210190562558712</v>
+        <v>9.075100657941459</v>
       </c>
       <c r="U5">
-        <v>3.210190562558712</v>
+        <v>9.075100657941459</v>
       </c>
       <c r="V5">
-        <v>3.210190562558712</v>
+        <v>9.075100657941459</v>
       </c>
       <c r="W5">
-        <v>3.210190562558712</v>
+        <v>9.075100657941459</v>
       </c>
       <c r="X5">
-        <v>3.210190562558712</v>
+        <v>9.075100657941459</v>
       </c>
       <c r="Y5">
-        <v>3.210190562558712</v>
+        <v>9.075100657941459</v>
       </c>
       <c r="Z5">
-        <v>3.210190562558712</v>
+        <v>9.075100657941459</v>
       </c>
       <c r="AA5">
-        <v>3.210190562558712</v>
+        <v>9.075100657941459</v>
       </c>
       <c r="AB5">
-        <v>3.210190562558712</v>
+        <v>9.075100657941459</v>
       </c>
       <c r="AC5">
-        <v>3.210190562558712</v>
+        <v>9.075100657941459</v>
       </c>
       <c r="AD5">
-        <v>3.210190562558712</v>
+        <v>9.075100657941459</v>
       </c>
       <c r="AE5">
-        <v>3.210190562558712</v>
+        <v>9.075100657941459</v>
       </c>
       <c r="AF5">
-        <v>3.210190562558712</v>
+        <v>9.075100657941459</v>
       </c>
       <c r="AG5">
-        <v>3.210190562558712</v>
+        <v>9.075100657941459</v>
       </c>
       <c r="AH5">
-        <v>3.210190562558712</v>
+        <v>9.075100657941459</v>
       </c>
       <c r="AI5">
-        <v>3.210190562558712</v>
+        <v>9.075100657941459</v>
       </c>
       <c r="AJ5">
-        <v>3.210190562558712</v>
+        <v>9.075100657941459</v>
       </c>
       <c r="AK5">
-        <v>3.210190562558712</v>
+        <v>9.075100657941459</v>
       </c>
       <c r="AL5">
-        <v>3.210190562558712</v>
+        <v>9.075100657941459</v>
       </c>
       <c r="AM5">
-        <v>3.210190562558712</v>
+        <v>9.075100657941459</v>
       </c>
       <c r="AN5">
-        <v>3.210190562558712</v>
+        <v>9.075100657941459</v>
       </c>
       <c r="AO5">
-        <v>3.210190562558712</v>
+        <v>9.075100657941459</v>
       </c>
       <c r="AP5">
-        <v>3.210190562558712</v>
+        <v>9.075100657941459</v>
       </c>
       <c r="AQ5">
-        <v>3.210190562558712</v>
+        <v>9.075100657941459</v>
       </c>
       <c r="AR5">
-        <v>3.210190562558712</v>
+        <v>9.075100657941459</v>
       </c>
       <c r="AS5">
-        <v>3.210190562558712</v>
+        <v>9.075100657941459</v>
       </c>
       <c r="AT5">
-        <v>3.210190562558712</v>
+        <v>9.075100657941459</v>
       </c>
       <c r="AU5">
-        <v>3.210190562558712</v>
+        <v>9.075100657941459</v>
       </c>
       <c r="AV5">
-        <v>3.210190562558712</v>
+        <v>9.075100657941459</v>
       </c>
       <c r="AW5">
-        <v>3.210190562558712</v>
+        <v>9.075100657941459</v>
       </c>
       <c r="AX5">
-        <v>3.210190562558712</v>
+        <v>9.075100657941459</v>
       </c>
       <c r="AY5">
-        <v>3.210190562558712</v>
+        <v>9.075100657941459</v>
       </c>
       <c r="AZ5">
-        <v>3.210190562558712</v>
+        <v>9.075100657941459</v>
       </c>
       <c r="BA5">
-        <v>3.210190562558712</v>
+        <v>9.075100657941459</v>
       </c>
     </row>
     <row r="6" spans="1:53">
       <c r="A6" s="1">
-        <v>40178</v>
-      </c>
-      <c r="F6">
-        <v>-7.266312015249776</v>
+        <v>41274</v>
       </c>
       <c r="G6">
-        <v>-7.392716344398053</v>
+        <v>4.342523721982161</v>
       </c>
       <c r="H6">
-        <v>-7.829486332896618</v>
+        <v>5.816635142117876</v>
       </c>
       <c r="I6">
-        <v>-7.964411665641913</v>
+        <v>4.739201070534849</v>
       </c>
       <c r="J6">
-        <v>-7.864097658617897</v>
+        <v>8.07926457985193</v>
       </c>
       <c r="K6">
-        <v>-7.864097658617897</v>
+        <v>3.449685446853556</v>
       </c>
       <c r="L6">
-        <v>-7.864097658617897</v>
+        <v>3.358206407534969</v>
       </c>
       <c r="M6">
-        <v>-7.864097658617897</v>
+        <v>3.697114313724215</v>
       </c>
       <c r="N6">
-        <v>-7.864097658617897</v>
+        <v>3.260099947761641</v>
       </c>
       <c r="O6">
-        <v>-7.864097658617897</v>
+        <v>3.260099947761641</v>
       </c>
       <c r="P6">
-        <v>-7.864097658617897</v>
+        <v>2.679910436989386</v>
       </c>
       <c r="Q6">
-        <v>-7.864097658617897</v>
+        <v>2.679910436989386</v>
       </c>
       <c r="R6">
-        <v>-7.864097658617897</v>
+        <v>2.679910436989386</v>
       </c>
       <c r="S6">
-        <v>-7.864097658617897</v>
+        <v>2.679910436989386</v>
       </c>
       <c r="T6">
-        <v>-7.864097658617897</v>
+        <v>2.679910436989386</v>
       </c>
       <c r="U6">
-        <v>-7.864097658617897</v>
+        <v>2.679910436989386</v>
       </c>
       <c r="V6">
-        <v>-7.864097658617897</v>
+        <v>2.679910436989386</v>
       </c>
       <c r="W6">
-        <v>-7.864097658617897</v>
+        <v>2.679910436989386</v>
       </c>
       <c r="X6">
-        <v>-7.864097658617897</v>
+        <v>2.679910436989386</v>
       </c>
       <c r="Y6">
-        <v>-7.864097658617897</v>
+        <v>2.679910436989386</v>
       </c>
       <c r="Z6">
-        <v>-7.864097658617897</v>
+        <v>2.679910436989386</v>
       </c>
       <c r="AA6">
-        <v>-7.864097658617897</v>
+        <v>2.679910436989386</v>
       </c>
       <c r="AB6">
-        <v>-7.864097658617897</v>
+        <v>2.679910436989386</v>
       </c>
       <c r="AC6">
-        <v>-7.864097658617897</v>
+        <v>2.679910436989386</v>
       </c>
       <c r="AD6">
-        <v>-7.864097658617897</v>
+        <v>2.679910436989386</v>
       </c>
       <c r="AE6">
-        <v>-7.864097658617897</v>
+        <v>2.679910436989386</v>
       </c>
       <c r="AF6">
-        <v>-7.864097658617897</v>
+        <v>2.679910436989386</v>
       </c>
       <c r="AG6">
-        <v>-7.864097658617897</v>
+        <v>2.679910436989386</v>
       </c>
       <c r="AH6">
-        <v>-7.864097658617897</v>
+        <v>2.679910436989386</v>
       </c>
       <c r="AI6">
-        <v>-7.864097658617897</v>
+        <v>2.679910436989386</v>
       </c>
       <c r="AJ6">
-        <v>-7.864097658617897</v>
+        <v>2.679910436989386</v>
       </c>
       <c r="AK6">
-        <v>-7.864097658617897</v>
+        <v>2.679910436989386</v>
       </c>
       <c r="AL6">
-        <v>-7.864097658617897</v>
+        <v>2.679910436989386</v>
       </c>
       <c r="AM6">
-        <v>-7.864097658617897</v>
+        <v>2.679910436989386</v>
       </c>
       <c r="AN6">
-        <v>-7.864097658617897</v>
+        <v>2.679910436989386</v>
       </c>
       <c r="AO6">
-        <v>-7.864097658617897</v>
+        <v>2.679910436989386</v>
       </c>
       <c r="AP6">
-        <v>-7.864097658617897</v>
+        <v>2.679910436989386</v>
       </c>
       <c r="AQ6">
-        <v>-7.864097658617897</v>
+        <v>2.679910436989386</v>
       </c>
       <c r="AR6">
-        <v>-7.864097658617897</v>
+        <v>2.679910436989386</v>
       </c>
       <c r="AS6">
-        <v>-7.864097658617897</v>
+        <v>2.679910436989386</v>
       </c>
       <c r="AT6">
-        <v>-7.864097658617897</v>
+        <v>2.679910436989386</v>
       </c>
       <c r="AU6">
-        <v>-7.864097658617897</v>
+        <v>2.679910436989386</v>
       </c>
       <c r="AV6">
-        <v>-7.864097658617897</v>
+        <v>2.679910436989386</v>
       </c>
       <c r="AW6">
-        <v>-7.864097658617897</v>
+        <v>2.679910436989386</v>
       </c>
       <c r="AX6">
-        <v>-7.864097658617897</v>
+        <v>2.679910436989386</v>
       </c>
       <c r="AY6">
-        <v>-7.864097658617897</v>
+        <v>2.679910436989386</v>
       </c>
       <c r="AZ6">
-        <v>-7.864097658617897</v>
+        <v>2.679910436989386</v>
       </c>
       <c r="BA6">
-        <v>-7.864097658617897</v>
+        <v>2.679910436989386</v>
       </c>
     </row>
     <row r="7" spans="1:53">
       <c r="A7" s="1">
-        <v>40543</v>
-      </c>
-      <c r="G7">
-        <v>3.184002331674129</v>
-      </c>
-      <c r="H7">
-        <v>6.958243460951929</v>
+        <v>41639</v>
       </c>
       <c r="I7">
-        <v>6.64518782801462</v>
+        <v>4.565993094976473</v>
       </c>
       <c r="J7">
-        <v>5.795450196953511</v>
+        <v>5.521564695739412</v>
       </c>
       <c r="K7">
-        <v>5.795450196953511</v>
+        <v>3.265075956625108</v>
       </c>
       <c r="L7">
-        <v>5.172294413915957</v>
+        <v>4.701432377325987</v>
       </c>
       <c r="M7">
-        <v>5.172294413915957</v>
+        <v>-1.480934717826898</v>
       </c>
       <c r="N7">
-        <v>5.172294413915957</v>
+        <v>0.3081076735359067</v>
       </c>
       <c r="O7">
-        <v>5.172294413915957</v>
+        <v>0.6837276428259154</v>
       </c>
       <c r="P7">
-        <v>5.172294413915957</v>
+        <v>1.966616993222026</v>
       </c>
       <c r="Q7">
-        <v>5.172294413915957</v>
+        <v>1.901982000667957</v>
       </c>
       <c r="R7">
-        <v>5.172294413915957</v>
+        <v>1.901982000667957</v>
       </c>
       <c r="S7">
-        <v>5.172294413915957</v>
+        <v>1.901982000667957</v>
       </c>
       <c r="T7">
-        <v>5.172294413915957</v>
+        <v>1.901982000667957</v>
       </c>
       <c r="U7">
-        <v>5.172294413915957</v>
+        <v>1.901982000667957</v>
       </c>
       <c r="V7">
-        <v>5.172294413915957</v>
+        <v>1.901982000667957</v>
       </c>
       <c r="W7">
-        <v>5.172294413915957</v>
+        <v>1.901982000667957</v>
       </c>
       <c r="X7">
-        <v>5.172294413915957</v>
+        <v>1.901982000667957</v>
       </c>
       <c r="Y7">
-        <v>5.172294413915957</v>
+        <v>1.901982000667957</v>
       </c>
       <c r="Z7">
-        <v>5.172294413915957</v>
+        <v>1.901982000667957</v>
       </c>
       <c r="AA7">
-        <v>5.172294413915957</v>
+        <v>1.901982000667957</v>
       </c>
       <c r="AB7">
-        <v>5.172294413915957</v>
+        <v>1.901982000667957</v>
       </c>
       <c r="AC7">
-        <v>5.172294413915957</v>
+        <v>1.901982000667957</v>
       </c>
       <c r="AD7">
-        <v>5.172294413915957</v>
+        <v>1.901982000667957</v>
       </c>
       <c r="AE7">
-        <v>5.172294413915957</v>
+        <v>1.901982000667957</v>
       </c>
       <c r="AF7">
-        <v>5.172294413915957</v>
+        <v>1.901982000667957</v>
       </c>
       <c r="AG7">
-        <v>5.172294413915957</v>
+        <v>1.901982000667957</v>
       </c>
       <c r="AH7">
-        <v>5.172294413915957</v>
+        <v>1.901982000667957</v>
       </c>
       <c r="AI7">
-        <v>5.172294413915957</v>
+        <v>1.901982000667957</v>
       </c>
       <c r="AJ7">
-        <v>5.172294413915957</v>
+        <v>1.901982000667957</v>
       </c>
       <c r="AK7">
-        <v>5.172294413915957</v>
+        <v>1.901982000667957</v>
       </c>
       <c r="AL7">
-        <v>5.172294413915957</v>
+        <v>1.901982000667957</v>
       </c>
       <c r="AM7">
-        <v>5.172294413915957</v>
+        <v>1.901982000667957</v>
       </c>
       <c r="AN7">
-        <v>5.172294413915957</v>
+        <v>1.901982000667957</v>
       </c>
       <c r="AO7">
-        <v>5.172294413915957</v>
+        <v>1.901982000667957</v>
       </c>
       <c r="AP7">
-        <v>5.172294413915957</v>
+        <v>1.901982000667957</v>
       </c>
       <c r="AQ7">
-        <v>5.172294413915957</v>
+        <v>1.901982000667957</v>
       </c>
       <c r="AR7">
-        <v>5.172294413915957</v>
+        <v>1.901982000667957</v>
       </c>
       <c r="AS7">
-        <v>5.172294413915957</v>
+        <v>1.901982000667957</v>
       </c>
       <c r="AT7">
-        <v>5.172294413915957</v>
+        <v>1.901982000667957</v>
       </c>
       <c r="AU7">
-        <v>5.172294413915957</v>
+        <v>1.901982000667957</v>
       </c>
       <c r="AV7">
-        <v>5.172294413915957</v>
+        <v>1.901982000667957</v>
       </c>
       <c r="AW7">
-        <v>5.172294413915957</v>
+        <v>1.901982000667957</v>
       </c>
       <c r="AX7">
-        <v>5.172294413915957</v>
+        <v>1.901982000667957</v>
       </c>
       <c r="AY7">
-        <v>5.172294413915957</v>
+        <v>1.901982000667957</v>
       </c>
       <c r="AZ7">
-        <v>5.172294413915957</v>
+        <v>1.901982000667957</v>
       </c>
       <c r="BA7">
-        <v>5.172294413915957</v>
+        <v>1.901982000667957</v>
       </c>
     </row>
     <row r="8" spans="1:53">
       <c r="A8" s="1">
-        <v>40908</v>
-      </c>
-      <c r="G8">
-        <v>6.704254199558113</v>
-      </c>
-      <c r="H8">
-        <v>12.21658306395068</v>
-      </c>
-      <c r="I8">
-        <v>8.626810748872327</v>
-      </c>
-      <c r="J8">
-        <v>9.469137444079934</v>
+        <v>42004</v>
       </c>
       <c r="K8">
-        <v>9.856384149233444</v>
+        <v>4.178489111708372</v>
       </c>
       <c r="L8">
-        <v>9.359115278856244</v>
+        <v>4.383152120614175</v>
       </c>
       <c r="M8">
-        <v>9.359115278856244</v>
+        <v>0.7772706050320544</v>
       </c>
       <c r="N8">
-        <v>9.075100657941459</v>
+        <v>3.972902167062387</v>
       </c>
       <c r="O8">
-        <v>9.075100657941459</v>
+        <v>5.427992542801285</v>
       </c>
       <c r="P8">
-        <v>9.075100657941459</v>
+        <v>3.901355411819685</v>
       </c>
       <c r="Q8">
-        <v>9.075100657941459</v>
+        <v>3.736958261562484</v>
       </c>
       <c r="R8">
-        <v>9.075100657941459</v>
+        <v>3.985650080172465</v>
       </c>
       <c r="S8">
-        <v>9.075100657941459</v>
+        <v>4.096464207715544</v>
       </c>
       <c r="T8">
-        <v>9.075100657941459</v>
+        <v>4.096464207715544</v>
       </c>
       <c r="U8">
-        <v>9.075100657941459</v>
+        <v>4.096464207715544</v>
       </c>
       <c r="V8">
-        <v>9.075100657941459</v>
+        <v>4.096464207715544</v>
       </c>
       <c r="W8">
-        <v>9.075100657941459</v>
+        <v>4.096464207715544</v>
       </c>
       <c r="X8">
-        <v>9.075100657941459</v>
+        <v>4.096464207715544</v>
       </c>
       <c r="Y8">
-        <v>9.075100657941459</v>
+        <v>4.096464207715544</v>
       </c>
       <c r="Z8">
-        <v>9.075100657941459</v>
+        <v>4.096464207715544</v>
       </c>
       <c r="AA8">
-        <v>9.075100657941459</v>
+        <v>4.096464207715544</v>
       </c>
       <c r="AB8">
-        <v>9.075100657941459</v>
+        <v>4.096464207715544</v>
       </c>
       <c r="AC8">
-        <v>9.075100657941459</v>
+        <v>4.096464207715544</v>
       </c>
       <c r="AD8">
-        <v>9.075100657941459</v>
+        <v>4.096464207715544</v>
       </c>
       <c r="AE8">
-        <v>9.075100657941459</v>
+        <v>4.096464207715544</v>
       </c>
       <c r="AF8">
-        <v>9.075100657941459</v>
+        <v>4.096464207715544</v>
       </c>
       <c r="AG8">
-        <v>9.075100657941459</v>
+        <v>4.096464207715544</v>
       </c>
       <c r="AH8">
-        <v>9.075100657941459</v>
+        <v>4.096464207715544</v>
       </c>
       <c r="AI8">
-        <v>9.075100657941459</v>
+        <v>4.096464207715544</v>
       </c>
       <c r="AJ8">
-        <v>9.075100657941459</v>
+        <v>4.096464207715544</v>
       </c>
       <c r="AK8">
-        <v>9.075100657941459</v>
+        <v>4.096464207715544</v>
       </c>
       <c r="AL8">
-        <v>9.075100657941459</v>
+        <v>4.096464207715544</v>
       </c>
       <c r="AM8">
-        <v>9.075100657941459</v>
+        <v>4.096464207715544</v>
       </c>
       <c r="AN8">
-        <v>9.075100657941459</v>
+        <v>4.096464207715544</v>
       </c>
       <c r="AO8">
-        <v>9.075100657941459</v>
+        <v>4.096464207715544</v>
       </c>
       <c r="AP8">
-        <v>9.075100657941459</v>
+        <v>4.096464207715544</v>
       </c>
       <c r="AQ8">
-        <v>9.075100657941459</v>
+        <v>4.096464207715544</v>
       </c>
       <c r="AR8">
-        <v>9.075100657941459</v>
+        <v>4.096464207715544</v>
       </c>
       <c r="AS8">
-        <v>9.075100657941459</v>
+        <v>4.096464207715544</v>
       </c>
       <c r="AT8">
-        <v>9.075100657941459</v>
+        <v>4.096464207715544</v>
       </c>
       <c r="AU8">
-        <v>9.075100657941459</v>
+        <v>4.096464207715544</v>
       </c>
       <c r="AV8">
-        <v>9.075100657941459</v>
+        <v>4.096464207715544</v>
       </c>
       <c r="AW8">
-        <v>9.075100657941459</v>
+        <v>4.096464207715544</v>
       </c>
       <c r="AX8">
-        <v>9.075100657941459</v>
+        <v>4.096464207715544</v>
       </c>
       <c r="AY8">
-        <v>9.075100657941459</v>
+        <v>4.096464207715544</v>
       </c>
       <c r="AZ8">
-        <v>9.075100657941459</v>
+        <v>4.096464207715544</v>
       </c>
       <c r="BA8">
-        <v>9.075100657941459</v>
+        <v>4.096464207715544</v>
       </c>
     </row>
     <row r="9" spans="1:53">
       <c r="A9" s="1">
-        <v>41274</v>
-      </c>
-      <c r="G9">
-        <v>4.342523721982117</v>
-      </c>
-      <c r="H9">
-        <v>5.816635142117876</v>
-      </c>
-      <c r="I9">
-        <v>4.739201070534826</v>
-      </c>
-      <c r="J9">
-        <v>8.079264579851909</v>
-      </c>
-      <c r="K9">
-        <v>3.449685446853534</v>
-      </c>
-      <c r="L9">
-        <v>3.358206407534947</v>
+        <v>42369</v>
       </c>
       <c r="M9">
-        <v>3.697114313724237</v>
+        <v>2.964350489142942</v>
       </c>
       <c r="N9">
-        <v>3.260099947761663</v>
+        <v>3.751358455099951</v>
       </c>
       <c r="O9">
-        <v>3.260099947761663</v>
+        <v>4.945882057432893</v>
       </c>
       <c r="P9">
-        <v>2.679910436989408</v>
+        <v>4.658857392675264</v>
       </c>
       <c r="Q9">
-        <v>2.679910436989408</v>
+        <v>4.970284184513529</v>
       </c>
       <c r="R9">
-        <v>2.679910436989408</v>
+        <v>5.331683351557981</v>
       </c>
       <c r="S9">
-        <v>2.679910436989408</v>
+        <v>5.338999401506328</v>
       </c>
       <c r="T9">
-        <v>2.679910436989408</v>
+        <v>4.669810934539109</v>
       </c>
       <c r="U9">
-        <v>2.679910436989408</v>
+        <v>4.722511558181752</v>
       </c>
       <c r="V9">
-        <v>2.679910436989408</v>
+        <v>4.722511558181752</v>
       </c>
       <c r="W9">
-        <v>2.679910436989408</v>
+        <v>4.722511558181752</v>
       </c>
       <c r="X9">
-        <v>2.679910436989408</v>
+        <v>4.722511558181752</v>
       </c>
       <c r="Y9">
-        <v>2.679910436989408</v>
+        <v>4.722511558181752</v>
       </c>
       <c r="Z9">
-        <v>2.679910436989408</v>
+        <v>4.722511558181752</v>
       </c>
       <c r="AA9">
-        <v>2.679910436989408</v>
+        <v>4.722511558181752</v>
       </c>
       <c r="AB9">
-        <v>2.679910436989408</v>
+        <v>4.722511558181752</v>
       </c>
       <c r="AC9">
-        <v>2.679910436989408</v>
+        <v>4.722511558181752</v>
       </c>
       <c r="AD9">
-        <v>2.679910436989408</v>
+        <v>4.722511558181752</v>
       </c>
       <c r="AE9">
-        <v>2.679910436989408</v>
+        <v>4.722511558181752</v>
       </c>
       <c r="AF9">
-        <v>2.679910436989408</v>
+        <v>4.722511558181752</v>
       </c>
       <c r="AG9">
-        <v>2.679910436989408</v>
+        <v>4.722511558181752</v>
       </c>
       <c r="AH9">
-        <v>2.679910436989408</v>
+        <v>4.722511558181752</v>
       </c>
       <c r="AI9">
-        <v>2.679910436989408</v>
+        <v>4.722511558181752</v>
       </c>
       <c r="AJ9">
-        <v>2.679910436989408</v>
+        <v>4.722511558181752</v>
       </c>
       <c r="AK9">
-        <v>2.679910436989408</v>
+        <v>4.722511558181752</v>
       </c>
       <c r="AL9">
-        <v>2.679910436989408</v>
+        <v>4.722511558181752</v>
       </c>
       <c r="AM9">
-        <v>2.679910436989408</v>
+        <v>4.722511558181752</v>
       </c>
       <c r="AN9">
-        <v>2.679910436989408</v>
+        <v>4.722511558181752</v>
       </c>
       <c r="AO9">
-        <v>2.679910436989408</v>
+        <v>4.722511558181752</v>
       </c>
       <c r="AP9">
-        <v>2.679910436989408</v>
+        <v>4.722511558181752</v>
       </c>
       <c r="AQ9">
-        <v>2.679910436989408</v>
+        <v>4.722511558181752</v>
       </c>
       <c r="AR9">
-        <v>2.679910436989408</v>
+        <v>4.722511558181752</v>
       </c>
       <c r="AS9">
-        <v>2.679910436989408</v>
+        <v>4.722511558181752</v>
       </c>
       <c r="AT9">
-        <v>2.679910436989408</v>
+        <v>4.722511558181752</v>
       </c>
       <c r="AU9">
-        <v>2.679910436989408</v>
+        <v>4.722511558181752</v>
       </c>
       <c r="AV9">
-        <v>2.679910436989408</v>
+        <v>4.722511558181752</v>
       </c>
       <c r="AW9">
-        <v>2.679910436989408</v>
+        <v>4.722511558181752</v>
       </c>
       <c r="AX9">
-        <v>2.679910436989408</v>
+        <v>4.722511558181752</v>
       </c>
       <c r="AY9">
-        <v>2.679910436989408</v>
+        <v>4.722511558181752</v>
       </c>
       <c r="AZ9">
-        <v>2.679910436989408</v>
+        <v>4.722511558181752</v>
       </c>
       <c r="BA9">
-        <v>2.679910436989408</v>
+        <v>4.722511558181752</v>
       </c>
     </row>
     <row r="10" spans="1:53">
       <c r="A10" s="1">
-        <v>41639</v>
-      </c>
-      <c r="I10">
-        <v>4.56599309497645</v>
-      </c>
-      <c r="J10">
-        <v>5.521564695739434</v>
-      </c>
-      <c r="K10">
-        <v>3.26507595662513</v>
-      </c>
-      <c r="L10">
-        <v>4.701432377325987</v>
-      </c>
-      <c r="M10">
-        <v>-1.480934717826909</v>
-      </c>
-      <c r="N10">
-        <v>0.3081076735359067</v>
+        <v>42735</v>
       </c>
       <c r="O10">
-        <v>0.6837276428259154</v>
+        <v>4.109946462993963</v>
       </c>
       <c r="P10">
-        <v>1.966616993222048</v>
+        <v>4.080702959488702</v>
       </c>
       <c r="Q10">
-        <v>1.901982000667957</v>
+        <v>4.488174889976171</v>
       </c>
       <c r="R10">
-        <v>1.901982000667957</v>
+        <v>4.089819750351809</v>
       </c>
       <c r="S10">
-        <v>1.901982000667957</v>
+        <v>4.039484738713806</v>
       </c>
       <c r="T10">
-        <v>1.901982000667957</v>
+        <v>3.254758369308375</v>
       </c>
       <c r="U10">
-        <v>1.901982000667957</v>
+        <v>3.349054996465806</v>
       </c>
       <c r="V10">
-        <v>1.901982000667957</v>
+        <v>3.349054996465806</v>
       </c>
       <c r="W10">
-        <v>1.901982000667957</v>
+        <v>3.349054996465806</v>
       </c>
       <c r="X10">
-        <v>1.901982000667957</v>
+        <v>3.349054996465806</v>
       </c>
       <c r="Y10">
-        <v>1.901982000667957</v>
+        <v>3.349054996465806</v>
       </c>
       <c r="Z10">
-        <v>1.901982000667957</v>
+        <v>3.349054996465806</v>
       </c>
       <c r="AA10">
-        <v>1.901982000667957</v>
+        <v>3.349054996465806</v>
       </c>
       <c r="AB10">
-        <v>1.901982000667957</v>
+        <v>3.349054996465806</v>
       </c>
       <c r="AC10">
-        <v>1.901982000667957</v>
+        <v>3.349054996465806</v>
       </c>
       <c r="AD10">
-        <v>1.901982000667957</v>
+        <v>3.349054996465806</v>
       </c>
       <c r="AE10">
-        <v>1.901982000667957</v>
+        <v>3.349054996465806</v>
       </c>
       <c r="AF10">
-        <v>1.901982000667957</v>
+        <v>3.349054996465806</v>
       </c>
       <c r="AG10">
-        <v>1.901982000667957</v>
+        <v>3.349054996465806</v>
       </c>
       <c r="AH10">
-        <v>1.901982000667957</v>
+        <v>3.349054996465806</v>
       </c>
       <c r="AI10">
-        <v>1.901982000667957</v>
+        <v>3.349054996465806</v>
       </c>
       <c r="AJ10">
-        <v>1.901982000667957</v>
+        <v>3.349054996465806</v>
       </c>
       <c r="AK10">
-        <v>1.901982000667957</v>
+        <v>3.349054996465806</v>
       </c>
       <c r="AL10">
-        <v>1.901982000667957</v>
+        <v>3.349054996465806</v>
       </c>
       <c r="AM10">
-        <v>1.901982000667957</v>
+        <v>3.349054996465806</v>
       </c>
       <c r="AN10">
-        <v>1.901982000667957</v>
+        <v>3.349054996465806</v>
       </c>
       <c r="AO10">
-        <v>1.901982000667957</v>
+        <v>3.349054996465806</v>
       </c>
       <c r="AP10">
-        <v>1.901982000667957</v>
+        <v>3.349054996465806</v>
       </c>
       <c r="AQ10">
-        <v>1.901982000667957</v>
+        <v>3.349054996465806</v>
       </c>
       <c r="AR10">
-        <v>1.901982000667957</v>
+        <v>3.349054996465806</v>
       </c>
       <c r="AS10">
-        <v>1.901982000667957</v>
+        <v>3.349054996465806</v>
       </c>
       <c r="AT10">
-        <v>1.901982000667957</v>
+        <v>3.349054996465806</v>
       </c>
       <c r="AU10">
-        <v>1.901982000667957</v>
+        <v>3.349054996465806</v>
       </c>
       <c r="AV10">
-        <v>1.901982000667957</v>
+        <v>3.349054996465806</v>
       </c>
       <c r="AW10">
-        <v>1.901982000667957</v>
+        <v>3.349054996465806</v>
       </c>
       <c r="AX10">
-        <v>1.901982000667957</v>
+        <v>3.349054996465806</v>
       </c>
       <c r="AY10">
-        <v>1.901982000667957</v>
+        <v>3.349054996465806</v>
       </c>
       <c r="AZ10">
-        <v>1.901982000667957</v>
+        <v>3.349054996465806</v>
       </c>
       <c r="BA10">
-        <v>1.901982000667957</v>
+        <v>3.349054996465806</v>
       </c>
     </row>
     <row r="11" spans="1:53">
       <c r="A11" s="1">
-        <v>42004</v>
-      </c>
-      <c r="K11">
-        <v>4.178489111708394</v>
-      </c>
-      <c r="L11">
-        <v>4.383152120614175</v>
-      </c>
-      <c r="M11">
-        <v>0.7772706050320544</v>
-      </c>
-      <c r="N11">
-        <v>3.972902167062387</v>
-      </c>
-      <c r="O11">
-        <v>5.427992542801308</v>
-      </c>
-      <c r="P11">
-        <v>3.901355411819707</v>
+        <v>43100</v>
       </c>
       <c r="Q11">
-        <v>3.736958261562484</v>
+        <v>4.020665737816653</v>
       </c>
       <c r="R11">
-        <v>3.985650080172465</v>
+        <v>3.993562006968099</v>
       </c>
       <c r="S11">
-        <v>4.096464207715544</v>
+        <v>4.214976960249173</v>
       </c>
       <c r="T11">
-        <v>4.096464207715544</v>
+        <v>2.313009565865709</v>
       </c>
       <c r="U11">
-        <v>4.096464207715544</v>
+        <v>4.589070866863865</v>
       </c>
       <c r="V11">
-        <v>4.096464207715544</v>
+        <v>5.246209615995689</v>
       </c>
       <c r="W11">
-        <v>4.096464207715544</v>
+        <v>5.336448956671025</v>
       </c>
       <c r="X11">
-        <v>4.096464207715544</v>
+        <v>5.398773774976817</v>
       </c>
       <c r="Y11">
-        <v>4.096464207715544</v>
+        <v>5.398773774976817</v>
       </c>
       <c r="Z11">
-        <v>4.096464207715544</v>
+        <v>5.398773774976817</v>
       </c>
       <c r="AA11">
-        <v>4.096464207715544</v>
+        <v>5.398773774976817</v>
       </c>
       <c r="AB11">
-        <v>4.096464207715544</v>
+        <v>5.398773774976817</v>
       </c>
       <c r="AC11">
-        <v>4.096464207715544</v>
+        <v>5.398773774976817</v>
       </c>
       <c r="AD11">
-        <v>4.096464207715544</v>
+        <v>5.398773774976817</v>
       </c>
       <c r="AE11">
-        <v>4.096464207715544</v>
+        <v>5.398773774976817</v>
       </c>
       <c r="AF11">
-        <v>4.096464207715544</v>
+        <v>5.398773774976817</v>
       </c>
       <c r="AG11">
-        <v>4.096464207715544</v>
+        <v>5.398773774976817</v>
       </c>
       <c r="AH11">
-        <v>4.096464207715544</v>
+        <v>5.398773774976817</v>
       </c>
       <c r="AI11">
-        <v>4.096464207715544</v>
+        <v>5.398773774976817</v>
       </c>
       <c r="AJ11">
-        <v>4.096464207715544</v>
+        <v>5.398773774976817</v>
       </c>
       <c r="AK11">
-        <v>4.096464207715544</v>
+        <v>5.398773774976817</v>
       </c>
       <c r="AL11">
-        <v>4.096464207715544</v>
+        <v>5.398773774976817</v>
       </c>
       <c r="AM11">
-        <v>4.096464207715544</v>
+        <v>5.398773774976817</v>
       </c>
       <c r="AN11">
-        <v>4.096464207715544</v>
+        <v>5.398773774976817</v>
       </c>
       <c r="AO11">
-        <v>4.096464207715544</v>
+        <v>5.398773774976817</v>
       </c>
       <c r="AP11">
-        <v>4.096464207715544</v>
+        <v>5.398773774976817</v>
       </c>
       <c r="AQ11">
-        <v>4.096464207715544</v>
+        <v>5.398773774976817</v>
       </c>
       <c r="AR11">
-        <v>4.096464207715544</v>
+        <v>5.398773774976817</v>
       </c>
       <c r="AS11">
-        <v>4.096464207715544</v>
+        <v>5.398773774976817</v>
       </c>
       <c r="AT11">
-        <v>4.096464207715544</v>
+        <v>5.398773774976817</v>
       </c>
       <c r="AU11">
-        <v>4.096464207715544</v>
+        <v>5.398773774976817</v>
       </c>
       <c r="AV11">
-        <v>4.096464207715544</v>
+        <v>5.398773774976817</v>
       </c>
       <c r="AW11">
-        <v>4.096464207715544</v>
+        <v>5.398773774976817</v>
       </c>
       <c r="AX11">
-        <v>4.096464207715544</v>
+        <v>5.398773774976817</v>
       </c>
       <c r="AY11">
-        <v>4.096464207715544</v>
+        <v>5.398773774976817</v>
       </c>
       <c r="AZ11">
-        <v>4.096464207715544</v>
+        <v>5.398773774976817</v>
       </c>
       <c r="BA11">
-        <v>4.096464207715544</v>
+        <v>5.398773774976817</v>
       </c>
     </row>
     <row r="12" spans="1:53">
       <c r="A12" s="1">
-        <v>42369</v>
-      </c>
-      <c r="M12">
-        <v>2.96435048914292</v>
-      </c>
-      <c r="N12">
-        <v>3.751358455099929</v>
-      </c>
-      <c r="O12">
-        <v>4.945882057432871</v>
-      </c>
-      <c r="P12">
-        <v>4.658857392675264</v>
-      </c>
-      <c r="Q12">
-        <v>4.970284184513551</v>
-      </c>
-      <c r="R12">
-        <v>5.331683351557981</v>
+        <v>43465</v>
       </c>
       <c r="S12">
-        <v>5.338999401506328</v>
+        <v>4.033780990429214</v>
       </c>
       <c r="T12">
-        <v>4.669810934539087</v>
+        <v>3.497922544245391</v>
       </c>
       <c r="U12">
-        <v>4.722511558181774</v>
+        <v>3.829046580278361</v>
       </c>
       <c r="V12">
-        <v>4.722511558181774</v>
+        <v>4.784022165496182</v>
       </c>
       <c r="W12">
-        <v>4.722511558181774</v>
+        <v>6.011890504679673</v>
       </c>
       <c r="X12">
-        <v>4.722511558181774</v>
+        <v>3.625873842174765</v>
       </c>
       <c r="Y12">
-        <v>4.722511558181774</v>
+        <v>4.899902276557033</v>
       </c>
       <c r="Z12">
-        <v>4.722511558181774</v>
+        <v>4.862559663742938</v>
       </c>
       <c r="AA12">
-        <v>4.722511558181774</v>
+        <v>4.848325243959639</v>
       </c>
       <c r="AB12">
-        <v>4.722511558181774</v>
+        <v>4.862559663742938</v>
       </c>
       <c r="AC12">
-        <v>4.722511558181774</v>
+        <v>4.827382248746059</v>
       </c>
       <c r="AD12">
-        <v>4.722511558181774</v>
+        <v>4.827382248746059</v>
       </c>
       <c r="AE12">
-        <v>4.722511558181774</v>
+        <v>4.827382248746059</v>
       </c>
       <c r="AF12">
-        <v>4.722511558181774</v>
+        <v>4.827382248746059</v>
       </c>
       <c r="AG12">
-        <v>4.722511558181774</v>
+        <v>4.827382248746059</v>
       </c>
       <c r="AH12">
-        <v>4.722511558181774</v>
+        <v>4.827382248746059</v>
       </c>
       <c r="AI12">
-        <v>4.722511558181774</v>
+        <v>4.827382248746059</v>
       </c>
       <c r="AJ12">
-        <v>4.722511558181774</v>
+        <v>4.827382248746059</v>
       </c>
       <c r="AK12">
-        <v>4.722511558181774</v>
+        <v>4.827382248746059</v>
       </c>
       <c r="AL12">
-        <v>4.722511558181774</v>
+        <v>4.827382248746059</v>
       </c>
       <c r="AM12">
-        <v>4.722511558181774</v>
+        <v>4.827382248746059</v>
       </c>
       <c r="AN12">
-        <v>4.722511558181774</v>
+        <v>4.827382248746059</v>
       </c>
       <c r="AO12">
-        <v>4.722511558181774</v>
+        <v>4.827382248746059</v>
       </c>
       <c r="AP12">
-        <v>4.722511558181774</v>
+        <v>4.827382248746059</v>
       </c>
       <c r="AQ12">
-        <v>4.722511558181774</v>
+        <v>4.827382248746059</v>
       </c>
       <c r="AR12">
-        <v>4.722511558181774</v>
+        <v>4.827382248746059</v>
       </c>
       <c r="AS12">
-        <v>4.722511558181774</v>
+        <v>4.827382248746059</v>
       </c>
       <c r="AT12">
-        <v>4.722511558181774</v>
+        <v>4.827382248746059</v>
       </c>
       <c r="AU12">
-        <v>4.722511558181774</v>
+        <v>4.827382248746059</v>
       </c>
       <c r="AV12">
-        <v>4.722511558181774</v>
+        <v>4.827382248746059</v>
       </c>
       <c r="AW12">
-        <v>4.722511558181774</v>
+        <v>4.827382248746059</v>
       </c>
       <c r="AX12">
-        <v>4.722511558181774</v>
+        <v>4.827382248746059</v>
       </c>
       <c r="AY12">
-        <v>4.722511558181774</v>
+        <v>4.827382248746059</v>
       </c>
       <c r="AZ12">
-        <v>4.722511558181774</v>
+        <v>4.827382248746059</v>
       </c>
       <c r="BA12">
-        <v>4.722511558181774</v>
+        <v>4.827382248746059</v>
       </c>
     </row>
     <row r="13" spans="1:53">
       <c r="A13" s="1">
-        <v>42735</v>
-      </c>
-      <c r="O13">
-        <v>4.109946462993963</v>
-      </c>
-      <c r="P13">
-        <v>4.080702959488658</v>
-      </c>
-      <c r="Q13">
-        <v>4.488174889976171</v>
-      </c>
-      <c r="R13">
-        <v>4.089819750351786</v>
-      </c>
-      <c r="S13">
-        <v>4.039484738713828</v>
-      </c>
-      <c r="T13">
-        <v>3.254758369308375</v>
+        <v>43830</v>
       </c>
       <c r="U13">
-        <v>3.349054996465806</v>
+        <v>3.932871916318881</v>
       </c>
       <c r="V13">
-        <v>3.349054996465806</v>
+        <v>3.902236772524459</v>
       </c>
       <c r="W13">
-        <v>3.349054996465806</v>
+        <v>4.234360353587618</v>
       </c>
       <c r="X13">
-        <v>3.349054996465806</v>
+        <v>2.330842103296149</v>
       </c>
       <c r="Y13">
-        <v>3.349054996465806</v>
+        <v>3.753427458457348</v>
       </c>
       <c r="Z13">
-        <v>3.349054996465806</v>
+        <v>4.112897401876769</v>
       </c>
       <c r="AA13">
-        <v>3.349054996465806</v>
+        <v>3.660106318836931</v>
       </c>
       <c r="AB13">
-        <v>3.349054996465806</v>
+        <v>3.500574054404426</v>
       </c>
       <c r="AC13">
-        <v>3.349054996465806</v>
+        <v>2.983312281417061</v>
       </c>
       <c r="AD13">
-        <v>3.349054996465806</v>
+        <v>2.76474001115945</v>
       </c>
       <c r="AE13">
-        <v>3.349054996465806</v>
+        <v>2.362865648905155</v>
       </c>
       <c r="AF13">
-        <v>3.349054996465806</v>
+        <v>3.057436569079708</v>
       </c>
       <c r="AG13">
-        <v>3.349054996465806</v>
+        <v>3.057436569079708</v>
       </c>
       <c r="AH13">
-        <v>3.349054996465806</v>
+        <v>3.057436569079708</v>
       </c>
       <c r="AI13">
-        <v>3.349054996465806</v>
+        <v>3.057436569079708</v>
       </c>
       <c r="AJ13">
-        <v>3.349054996465806</v>
+        <v>3.057436569079708</v>
       </c>
       <c r="AK13">
-        <v>3.349054996465806</v>
+        <v>3.057436569079708</v>
       </c>
       <c r="AL13">
-        <v>3.349054996465806</v>
+        <v>3.057436569079708</v>
       </c>
       <c r="AM13">
-        <v>3.349054996465806</v>
+        <v>3.057436569079708</v>
       </c>
       <c r="AN13">
-        <v>3.349054996465806</v>
+        <v>3.057436569079708</v>
       </c>
       <c r="AO13">
-        <v>3.349054996465806</v>
+        <v>3.057436569079708</v>
       </c>
       <c r="AP13">
-        <v>3.349054996465806</v>
+        <v>3.057436569079708</v>
       </c>
       <c r="AQ13">
-        <v>3.349054996465806</v>
+        <v>3.057436569079708</v>
       </c>
       <c r="AR13">
-        <v>3.349054996465806</v>
+        <v>3.057436569079708</v>
       </c>
       <c r="AS13">
-        <v>3.349054996465806</v>
+        <v>3.057436569079708</v>
       </c>
       <c r="AT13">
-        <v>3.349054996465806</v>
+        <v>3.057436569079708</v>
       </c>
       <c r="AU13">
-        <v>3.349054996465806</v>
+        <v>3.057436569079708</v>
       </c>
       <c r="AV13">
-        <v>3.349054996465806</v>
+        <v>3.057436569079708</v>
       </c>
       <c r="AW13">
-        <v>3.349054996465806</v>
+        <v>3.057436569079708</v>
       </c>
       <c r="AX13">
-        <v>3.349054996465806</v>
+        <v>3.057436569079708</v>
       </c>
       <c r="AY13">
-        <v>3.349054996465806</v>
+        <v>3.057436569079708</v>
       </c>
       <c r="AZ13">
-        <v>3.349054996465806</v>
+        <v>3.057436569079708</v>
       </c>
       <c r="BA13">
-        <v>3.349054996465806</v>
+        <v>3.057436569079708</v>
       </c>
     </row>
     <row r="14" spans="1:53">
       <c r="A14" s="1">
-        <v>43100</v>
-      </c>
-      <c r="Q14">
-        <v>4.020665737816675</v>
-      </c>
-      <c r="R14">
-        <v>3.993562006968099</v>
-      </c>
-      <c r="S14">
-        <v>4.214976960249173</v>
-      </c>
-      <c r="T14">
-        <v>2.313009565865753</v>
-      </c>
-      <c r="U14">
-        <v>4.589070866863865</v>
-      </c>
-      <c r="V14">
-        <v>5.246209615995667</v>
-      </c>
-      <c r="W14">
-        <v>5.336448956671025</v>
+        <v>44196</v>
       </c>
       <c r="X14">
-        <v>5.398773774976817</v>
+        <v>3.233989712008634</v>
       </c>
       <c r="Y14">
-        <v>5.398773774976817</v>
+        <v>3.53293640851724</v>
       </c>
       <c r="Z14">
-        <v>5.398773774976817</v>
+        <v>3.507433310905306</v>
       </c>
       <c r="AA14">
-        <v>5.398773774976817</v>
+        <v>3.270208315717027</v>
       </c>
       <c r="AB14">
-        <v>5.398773774976817</v>
+        <v>3.216614817209962</v>
       </c>
       <c r="AC14">
-        <v>5.398773774976817</v>
+        <v>2.428295356218024</v>
       </c>
       <c r="AD14">
-        <v>5.398773774976817</v>
+        <v>1.643374185611379</v>
       </c>
       <c r="AE14">
-        <v>5.398773774976817</v>
+        <v>2.096953540211</v>
       </c>
       <c r="AF14">
-        <v>5.398773774976817</v>
+        <v>-0.9913189363815467</v>
       </c>
       <c r="AG14">
-        <v>5.398773774976817</v>
+        <v>-10.53914413005148</v>
       </c>
       <c r="AH14">
-        <v>5.398773774976817</v>
+        <v>-7.260793671746447</v>
       </c>
       <c r="AI14">
-        <v>5.398773774976817</v>
+        <v>-7.373714785196384</v>
       </c>
       <c r="AJ14">
-        <v>5.398773774976817</v>
+        <v>-7.240028578896962</v>
       </c>
       <c r="AK14">
-        <v>5.398773774976817</v>
+        <v>-7.240028578896962</v>
       </c>
       <c r="AL14">
-        <v>5.398773774976817</v>
+        <v>-7.240028578896962</v>
       </c>
       <c r="AM14">
-        <v>5.398773774976817</v>
+        <v>-7.240028578896962</v>
       </c>
       <c r="AN14">
-        <v>5.398773774976817</v>
+        <v>-7.240028578896962</v>
       </c>
       <c r="AO14">
-        <v>5.398773774976817</v>
+        <v>-7.240028578896962</v>
       </c>
       <c r="AP14">
-        <v>5.398773774976817</v>
+        <v>-7.240028578896962</v>
       </c>
       <c r="AQ14">
-        <v>5.398773774976817</v>
+        <v>-7.240028578896962</v>
       </c>
       <c r="AR14">
-        <v>5.398773774976817</v>
+        <v>-7.240028578896962</v>
       </c>
       <c r="AS14">
-        <v>5.398773774976817</v>
+        <v>-7.240028578896962</v>
       </c>
       <c r="AT14">
-        <v>5.398773774976817</v>
+        <v>-7.240028578896962</v>
       </c>
       <c r="AU14">
-        <v>5.398773774976817</v>
+        <v>-7.240028578896962</v>
       </c>
       <c r="AV14">
-        <v>5.398773774976817</v>
+        <v>-7.240028578896962</v>
       </c>
       <c r="AW14">
-        <v>5.398773774976817</v>
+        <v>-7.240028578896962</v>
       </c>
       <c r="AX14">
-        <v>5.398773774976817</v>
+        <v>-7.240028578896962</v>
       </c>
       <c r="AY14">
-        <v>5.398773774976817</v>
+        <v>-7.240028578896962</v>
       </c>
       <c r="AZ14">
-        <v>5.398773774976817</v>
+        <v>-7.240028578896962</v>
       </c>
       <c r="BA14">
-        <v>5.398773774976817</v>
+        <v>-7.240028578896962</v>
       </c>
     </row>
     <row r="15" spans="1:53">
       <c r="A15" s="1">
-        <v>43465</v>
-      </c>
-      <c r="S15">
-        <v>4.033780990429192</v>
-      </c>
-      <c r="T15">
-        <v>3.497922544245369</v>
-      </c>
-      <c r="U15">
-        <v>3.829046580278361</v>
-      </c>
-      <c r="V15">
-        <v>4.784022165496182</v>
-      </c>
-      <c r="W15">
-        <v>6.011890504679696</v>
-      </c>
-      <c r="X15">
-        <v>3.625873842174787</v>
-      </c>
-      <c r="Y15">
-        <v>4.899902276557011</v>
-      </c>
-      <c r="Z15">
-        <v>4.86255966374296</v>
-      </c>
-      <c r="AA15">
-        <v>4.848325243959661</v>
+        <v>44561</v>
       </c>
       <c r="AB15">
-        <v>4.86255966374296</v>
+        <v>3.296751425480493</v>
       </c>
       <c r="AC15">
-        <v>4.827382248746037</v>
+        <v>3.292231496703391</v>
       </c>
       <c r="AD15">
-        <v>4.827382248746037</v>
+        <v>2.910658109359665</v>
       </c>
       <c r="AE15">
-        <v>4.827382248746037</v>
+        <v>3.169670668618951</v>
       </c>
       <c r="AF15">
-        <v>4.827382248746037</v>
+        <v>1.183532150252908</v>
       </c>
       <c r="AG15">
-        <v>4.827382248746037</v>
+        <v>-22.18666085538523</v>
       </c>
       <c r="AH15">
-        <v>4.827382248746037</v>
+        <v>-5.080986607234461</v>
       </c>
       <c r="AI15">
-        <v>4.827382248746037</v>
+        <v>1.081256150698295</v>
       </c>
       <c r="AJ15">
-        <v>4.827382248746037</v>
+        <v>3.42272884759196</v>
       </c>
       <c r="AK15">
-        <v>4.827382248746037</v>
+        <v>4.45233955277895</v>
       </c>
       <c r="AL15">
-        <v>4.827382248746037</v>
+        <v>4.097586525396246</v>
       </c>
       <c r="AM15">
-        <v>4.827382248746037</v>
+        <v>4.412562682863852</v>
       </c>
       <c r="AN15">
-        <v>4.827382248746037</v>
+        <v>4.518318737295335</v>
       </c>
       <c r="AO15">
-        <v>4.827382248746037</v>
+        <v>4.518318737295335</v>
       </c>
       <c r="AP15">
-        <v>4.827382248746037</v>
+        <v>4.518318737295335</v>
       </c>
       <c r="AQ15">
-        <v>4.827382248746037</v>
+        <v>4.518318737295335</v>
       </c>
       <c r="AR15">
-        <v>4.827382248746037</v>
+        <v>4.518318737295335</v>
       </c>
       <c r="AS15">
-        <v>4.827382248746037</v>
+        <v>4.518318737295335</v>
       </c>
       <c r="AT15">
-        <v>4.827382248746037</v>
+        <v>4.518318737295335</v>
       </c>
       <c r="AU15">
-        <v>4.827382248746037</v>
+        <v>4.518318737295335</v>
       </c>
       <c r="AV15">
-        <v>4.827382248746037</v>
+        <v>4.518318737295335</v>
       </c>
       <c r="AW15">
-        <v>4.827382248746037</v>
+        <v>4.518318737295335</v>
       </c>
       <c r="AX15">
-        <v>4.827382248746037</v>
+        <v>4.518318737295335</v>
       </c>
       <c r="AY15">
-        <v>4.827382248746037</v>
+        <v>4.518318737295335</v>
       </c>
       <c r="AZ15">
-        <v>4.827382248746037</v>
+        <v>4.518318737295335</v>
       </c>
       <c r="BA15">
-        <v>4.827382248746037</v>
+        <v>4.518318737295335</v>
       </c>
     </row>
     <row r="16" spans="1:53">
       <c r="A16" s="1">
-        <v>43830</v>
-      </c>
-      <c r="U16">
-        <v>3.932871916318881</v>
-      </c>
-      <c r="V16">
-        <v>3.902236772524459</v>
-      </c>
-      <c r="W16">
-        <v>4.234360353587641</v>
-      </c>
-      <c r="X16">
-        <v>2.330842103296149</v>
-      </c>
-      <c r="Y16">
-        <v>3.75342745845737</v>
-      </c>
-      <c r="Z16">
-        <v>4.112897401876747</v>
-      </c>
-      <c r="AA16">
-        <v>3.660106318836931</v>
-      </c>
-      <c r="AB16">
-        <v>3.500574054404404</v>
-      </c>
-      <c r="AC16">
-        <v>2.983312281417039</v>
-      </c>
-      <c r="AD16">
-        <v>2.764740011159428</v>
-      </c>
-      <c r="AE16">
-        <v>2.362865648905155</v>
+        <v>44926</v>
       </c>
       <c r="AF16">
-        <v>3.057436569079686</v>
+        <v>2.59773147328235</v>
       </c>
       <c r="AG16">
-        <v>3.057436569079686</v>
+        <v>-5.595609256595202</v>
       </c>
       <c r="AH16">
-        <v>3.057436569079686</v>
+        <v>2.098997457038321</v>
       </c>
       <c r="AI16">
-        <v>3.057436569079686</v>
+        <v>2.506724705081398</v>
       </c>
       <c r="AJ16">
-        <v>3.057436569079686</v>
+        <v>4.159769430572635</v>
       </c>
       <c r="AK16">
-        <v>3.057436569079686</v>
+        <v>5.224501267457948</v>
       </c>
       <c r="AL16">
-        <v>3.057436569079686</v>
+        <v>4.326582230384801</v>
       </c>
       <c r="AM16">
-        <v>3.057436569079686</v>
+        <v>8.529014364547649</v>
       </c>
       <c r="AN16">
-        <v>3.057436569079686</v>
+        <v>7.616541368420382</v>
       </c>
       <c r="AO16">
-        <v>3.057436569079686</v>
+        <v>7.551356180977153</v>
       </c>
       <c r="AP16">
-        <v>3.057436569079686</v>
+        <v>7.824284864703768</v>
       </c>
       <c r="AQ16">
-        <v>3.057436569079686</v>
+        <v>7.584463210315628</v>
       </c>
       <c r="AR16">
-        <v>3.057436569079686</v>
+        <v>8.368890311302657</v>
       </c>
       <c r="AS16">
-        <v>3.057436569079686</v>
+        <v>8.368890311302657</v>
       </c>
       <c r="AT16">
-        <v>3.057436569079686</v>
+        <v>8.368890311302657</v>
       </c>
       <c r="AU16">
-        <v>3.057436569079686</v>
+        <v>8.368890311302657</v>
       </c>
       <c r="AV16">
-        <v>3.057436569079686</v>
+        <v>8.368890311302657</v>
       </c>
       <c r="AW16">
-        <v>3.057436569079686</v>
+        <v>8.368890311302657</v>
       </c>
       <c r="AX16">
-        <v>3.057436569079686</v>
+        <v>8.368890311302657</v>
       </c>
       <c r="AY16">
-        <v>3.057436569079686</v>
+        <v>8.368890311302657</v>
       </c>
       <c r="AZ16">
-        <v>3.057436569079686</v>
+        <v>8.368890311302657</v>
       </c>
       <c r="BA16">
-        <v>3.057436569079686</v>
+        <v>8.368890311302657</v>
       </c>
     </row>
     <row r="17" spans="1:53">
       <c r="A17" s="1">
-        <v>44196</v>
-      </c>
-      <c r="X17">
-        <v>3.233989712008656</v>
-      </c>
-      <c r="Y17">
-        <v>3.53293640851724</v>
-      </c>
-      <c r="Z17">
-        <v>3.507433310905306</v>
-      </c>
-      <c r="AA17">
-        <v>3.270208315717005</v>
-      </c>
-      <c r="AB17">
-        <v>3.21661481720994</v>
-      </c>
-      <c r="AC17">
-        <v>2.428295356218069</v>
-      </c>
-      <c r="AD17">
-        <v>1.643374185611401</v>
-      </c>
-      <c r="AE17">
-        <v>2.096953540210977</v>
-      </c>
-      <c r="AF17">
-        <v>-0.9913189363815245</v>
-      </c>
-      <c r="AG17">
-        <v>-10.53914413005148</v>
-      </c>
-      <c r="AH17">
-        <v>-7.260793671746435</v>
-      </c>
-      <c r="AI17">
-        <v>-7.373714785196372</v>
+        <v>45291</v>
       </c>
       <c r="AJ17">
-        <v>-7.240028578896951</v>
+        <v>3.501510988756174</v>
       </c>
       <c r="AK17">
-        <v>-7.240028578896951</v>
+        <v>4.091393375596097</v>
       </c>
       <c r="AL17">
-        <v>-7.240028578896951</v>
+        <v>3.854154284621125</v>
       </c>
       <c r="AM17">
-        <v>-7.240028578896951</v>
+        <v>4.183355795188826</v>
       </c>
       <c r="AN17">
-        <v>-7.240028578896951</v>
+        <v>3.875399348087094</v>
       </c>
       <c r="AO17">
-        <v>-7.240028578896951</v>
+        <v>3.739387868238042</v>
       </c>
       <c r="AP17">
-        <v>-7.240028578896951</v>
+        <v>5.010954047212612</v>
       </c>
       <c r="AQ17">
-        <v>-7.240028578896951</v>
+        <v>2.839863250679464</v>
       </c>
       <c r="AR17">
-        <v>-7.240028578896951</v>
+        <v>0.7753820538246803</v>
       </c>
       <c r="AS17">
-        <v>-7.240028578896951</v>
+        <v>-0.2318687624372151</v>
       </c>
       <c r="AT17">
-        <v>-7.240028578896951</v>
+        <v>-1.245022353133318</v>
       </c>
       <c r="AU17">
-        <v>-7.240028578896951</v>
+        <v>-1.329027666126548</v>
       </c>
       <c r="AV17">
-        <v>-7.240028578896951</v>
+        <v>-0.5780765226327311</v>
       </c>
       <c r="AW17">
-        <v>-7.240028578896951</v>
+        <v>-0.5780765226327311</v>
       </c>
       <c r="AX17">
-        <v>-7.240028578896951</v>
+        <v>-0.5780765226327311</v>
       </c>
       <c r="AY17">
-        <v>-7.240028578896951</v>
+        <v>-0.5780765226327311</v>
       </c>
       <c r="AZ17">
-        <v>-7.240028578896951</v>
+        <v>-0.5780765226327311</v>
       </c>
       <c r="BA17">
-        <v>-7.240028578896951</v>
+        <v>-0.5780765226327311</v>
       </c>
     </row>
     <row r="18" spans="1:53">
       <c r="A18" s="1">
-        <v>44561</v>
-      </c>
-      <c r="AB18">
-        <v>3.296751425480515</v>
-      </c>
-      <c r="AC18">
-        <v>3.292231496703391</v>
-      </c>
-      <c r="AD18">
-        <v>2.910658109359687</v>
-      </c>
-      <c r="AE18">
-        <v>3.169670668618951</v>
-      </c>
-      <c r="AF18">
-        <v>1.183532150252908</v>
-      </c>
-      <c r="AG18">
-        <v>-22.18666085538521</v>
-      </c>
-      <c r="AH18">
-        <v>-5.080986607234472</v>
-      </c>
-      <c r="AI18">
-        <v>1.081256150698318</v>
-      </c>
-      <c r="AJ18">
-        <v>3.422728847591983</v>
-      </c>
-      <c r="AK18">
-        <v>4.452339552778994</v>
-      </c>
-      <c r="AL18">
-        <v>4.097586525396268</v>
-      </c>
-      <c r="AM18">
-        <v>4.412562682863852</v>
+        <v>45657</v>
       </c>
       <c r="AN18">
-        <v>4.518318737295357</v>
+        <v>3.939468080786535</v>
       </c>
       <c r="AO18">
-        <v>4.518318737295357</v>
+        <v>3.58634143761003</v>
       </c>
       <c r="AP18">
-        <v>4.518318737295357</v>
+        <v>3.698222818333852</v>
       </c>
       <c r="AQ18">
-        <v>4.518318737295357</v>
+        <v>3.553794453012893</v>
       </c>
       <c r="AR18">
-        <v>4.518318737295357</v>
+        <v>2.989319424861114</v>
       </c>
       <c r="AS18">
-        <v>4.518318737295357</v>
+        <v>2.20658681114152</v>
       </c>
       <c r="AT18">
-        <v>4.518318737295357</v>
+        <v>0.5676719215572001</v>
       </c>
       <c r="AU18">
-        <v>4.518318737295357</v>
+        <v>-2.046429762218083</v>
       </c>
       <c r="AV18">
-        <v>4.518318737295357</v>
+        <v>-2.179161737170099</v>
       </c>
       <c r="AW18">
-        <v>4.518318737295357</v>
+        <v>-2.319665112315217</v>
       </c>
       <c r="AX18">
-        <v>4.518318737295357</v>
+        <v>-1.735114423676209</v>
       </c>
       <c r="AY18">
-        <v>4.518318737295357</v>
+        <v>-1.578781203690705</v>
       </c>
       <c r="AZ18">
-        <v>4.518318737295357</v>
+        <v>-2.031769649484816</v>
       </c>
       <c r="BA18">
-        <v>4.518318737295357</v>
+        <v>-2.031769649484816</v>
       </c>
     </row>
     <row r="19" spans="1:53">
       <c r="A19" s="1">
-        <v>44926</v>
-      </c>
-      <c r="AF19">
-        <v>2.59773147328235</v>
-      </c>
-      <c r="AG19">
-        <v>-5.595609256595202</v>
-      </c>
-      <c r="AH19">
-        <v>2.098997457038321</v>
-      </c>
-      <c r="AI19">
-        <v>2.50672470508142</v>
-      </c>
-      <c r="AJ19">
-        <v>4.159769430572657</v>
-      </c>
-      <c r="AK19">
-        <v>5.224501267457948</v>
-      </c>
-      <c r="AL19">
-        <v>4.326582230384801</v>
-      </c>
-      <c r="AM19">
-        <v>8.52901436454767</v>
-      </c>
-      <c r="AN19">
-        <v>7.61654136842036</v>
-      </c>
-      <c r="AO19">
-        <v>7.551356180977131</v>
-      </c>
-      <c r="AP19">
-        <v>7.824284864703746</v>
-      </c>
-      <c r="AQ19">
-        <v>7.584463210315606</v>
+        <v>46022</v>
       </c>
       <c r="AR19">
-        <v>8.368890311302657</v>
+        <v>3.211600998495778</v>
       </c>
       <c r="AS19">
-        <v>8.368890311302657</v>
+        <v>2.996475812035015</v>
       </c>
       <c r="AT19">
-        <v>8.368890311302657</v>
+        <v>2.71385060977023</v>
       </c>
       <c r="AU19">
-        <v>8.368890311302657</v>
+        <v>2.615718196935091</v>
       </c>
       <c r="AV19">
-        <v>8.368890311302657</v>
+        <v>2.618356875591177</v>
       </c>
       <c r="AW19">
-        <v>8.368890311302657</v>
+        <v>2.445734351032636</v>
       </c>
       <c r="AX19">
-        <v>8.368890311302657</v>
+        <v>2.806286889124987</v>
       </c>
       <c r="AY19">
-        <v>8.368890311302657</v>
+        <v>2.991102431236192</v>
       </c>
       <c r="AZ19">
-        <v>8.368890311302657</v>
+        <v>1.847721869714491</v>
       </c>
       <c r="BA19">
-        <v>8.368890311302657</v>
+        <v>2.704857934901939</v>
       </c>
     </row>
     <row r="20" spans="1:53">
       <c r="A20" s="1">
-        <v>45291</v>
-      </c>
-      <c r="AJ20">
-        <v>3.501510988756174</v>
-      </c>
-      <c r="AK20">
-        <v>4.09139337559612</v>
-      </c>
-      <c r="AL20">
-        <v>3.854154284621125</v>
-      </c>
-      <c r="AM20">
-        <v>4.183355795188803</v>
-      </c>
-      <c r="AN20">
-        <v>3.875399348087094</v>
-      </c>
-      <c r="AO20">
-        <v>3.739387868238064</v>
-      </c>
-      <c r="AP20">
-        <v>5.010954047212612</v>
-      </c>
-      <c r="AQ20">
-        <v>2.839863250679464</v>
-      </c>
-      <c r="AR20">
-        <v>0.7753820538246803</v>
-      </c>
-      <c r="AS20">
-        <v>-0.2318687624372262</v>
-      </c>
-      <c r="AT20">
-        <v>-1.24502235313334</v>
-      </c>
-      <c r="AU20">
-        <v>-1.329027666126559</v>
+        <v>46387</v>
       </c>
       <c r="AV20">
-        <v>-0.5780765226327422</v>
+        <v>2.602742958112669</v>
       </c>
       <c r="AW20">
-        <v>-0.5780765226327422</v>
+        <v>2.648174442814999</v>
       </c>
       <c r="AX20">
-        <v>-0.5780765226327422</v>
+        <v>2.791244746056099</v>
       </c>
       <c r="AY20">
-        <v>-0.5780765226327422</v>
+        <v>2.871978646219042</v>
       </c>
       <c r="AZ20">
-        <v>-0.5780765226327422</v>
+        <v>2.817471640282698</v>
       </c>
       <c r="BA20">
-        <v>-0.5780765226327422</v>
+        <v>3.343276078818591</v>
       </c>
     </row>
     <row r="21" spans="1:53">
       <c r="A21" s="1">
-        <v>45657</v>
-      </c>
-      <c r="AN21">
-        <v>3.939468080786535</v>
-      </c>
-      <c r="AO21">
-        <v>3.58634143761003</v>
-      </c>
-      <c r="AP21">
-        <v>3.698222818333829</v>
-      </c>
-      <c r="AQ21">
-        <v>3.553794453012871</v>
-      </c>
-      <c r="AR21">
-        <v>2.989319424861114</v>
-      </c>
-      <c r="AS21">
-        <v>2.206586811141542</v>
-      </c>
-      <c r="AT21">
-        <v>0.5676719215572001</v>
-      </c>
-      <c r="AU21">
-        <v>-2.046429762218094</v>
-      </c>
-      <c r="AV21">
-        <v>-2.17916173717011</v>
-      </c>
-      <c r="AW21">
-        <v>-2.319665112315228</v>
-      </c>
-      <c r="AX21">
-        <v>-1.735114423676209</v>
-      </c>
-      <c r="AY21">
-        <v>-1.578781203690705</v>
+        <v>46752</v>
       </c>
       <c r="AZ21">
-        <v>-2.031769649484816</v>
+        <v>2.731254939036254</v>
       </c>
       <c r="BA21">
-        <v>-2.031769649484816</v>
+        <v>2.78474996485687</v>
       </c>
     </row>
     <row r="22" spans="1:53">
       <c r="A22" s="1">
-        <v>46022</v>
-      </c>
-      <c r="AR22">
-        <v>3.211600998495756</v>
-      </c>
-      <c r="AS22">
-        <v>2.996475812035015</v>
-      </c>
-      <c r="AT22">
-        <v>2.71385060977023</v>
-      </c>
-      <c r="AU22">
-        <v>2.615718196935091</v>
-      </c>
-      <c r="AV22">
-        <v>2.618356875591199</v>
-      </c>
-      <c r="AW22">
-        <v>2.445734351032636</v>
-      </c>
-      <c r="AX22">
-        <v>2.806286889124965</v>
-      </c>
-      <c r="AY22">
-        <v>2.991102431236192</v>
-      </c>
-      <c r="AZ22">
-        <v>1.847721869714491</v>
-      </c>
-      <c r="BA22">
-        <v>2.704857934901916</v>
-      </c>
-    </row>
-    <row r="23" spans="1:53">
-      <c r="A23" s="1">
-        <v>46387</v>
-      </c>
-      <c r="AV23">
-        <v>2.602742958112625</v>
-      </c>
-      <c r="AW23">
-        <v>2.648174442814999</v>
-      </c>
-      <c r="AX23">
-        <v>2.791244746056099</v>
-      </c>
-      <c r="AY23">
-        <v>2.871978646219042</v>
-      </c>
-      <c r="AZ23">
-        <v>2.81747164028272</v>
-      </c>
-      <c r="BA23">
-        <v>3.343276078818591</v>
-      </c>
-    </row>
-    <row r="24" spans="1:53">
-      <c r="A24" s="1">
-        <v>46752</v>
-      </c>
-      <c r="AZ24">
-        <v>2.731254939036254</v>
-      </c>
-      <c r="BA24">
-        <v>2.784749964856847</v>
-      </c>
-    </row>
-    <row r="25" spans="1:53">
-      <c r="A25" s="1">
         <v>47118</v>
       </c>
     </row>

--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_IMPORT_AR_50_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_IMPORT_AR_50_9.xlsx
@@ -369,13 +369,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA22"/>
+  <dimension ref="A1:BB22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:54">
       <c r="B1" s="1">
         <v>39400</v>
       </c>
@@ -532,13 +532,16 @@
       <c r="BA1" s="1">
         <v>45891</v>
       </c>
+      <c r="BB1" s="1">
+        <v>45986</v>
+      </c>
     </row>
-    <row r="2" spans="1:53">
+    <row r="2" spans="1:54">
       <c r="A2" s="1">
         <v>39813</v>
       </c>
     </row>
-    <row r="3" spans="1:53">
+    <row r="3" spans="1:54">
       <c r="A3" s="1">
         <v>40178</v>
       </c>
@@ -686,8 +689,11 @@
       <c r="BA3">
         <v>-7.864097658617908</v>
       </c>
+      <c r="BB3">
+        <v>-7.864097658617908</v>
+      </c>
     </row>
-    <row r="4" spans="1:53">
+    <row r="4" spans="1:54">
       <c r="A4" s="1">
         <v>40543</v>
       </c>
@@ -832,8 +838,11 @@
       <c r="BA4">
         <v>5.172294413915957</v>
       </c>
+      <c r="BB4">
+        <v>5.172294413915957</v>
+      </c>
     </row>
-    <row r="5" spans="1:53">
+    <row r="5" spans="1:54">
       <c r="A5" s="1">
         <v>40908</v>
       </c>
@@ -978,8 +987,11 @@
       <c r="BA5">
         <v>9.075100657941459</v>
       </c>
+      <c r="BB5">
+        <v>9.075100657941459</v>
+      </c>
     </row>
-    <row r="6" spans="1:53">
+    <row r="6" spans="1:54">
       <c r="A6" s="1">
         <v>41274</v>
       </c>
@@ -1124,8 +1136,11 @@
       <c r="BA6">
         <v>2.679910436989386</v>
       </c>
+      <c r="BB6">
+        <v>2.679910436989386</v>
+      </c>
     </row>
-    <row r="7" spans="1:53">
+    <row r="7" spans="1:54">
       <c r="A7" s="1">
         <v>41639</v>
       </c>
@@ -1264,8 +1279,11 @@
       <c r="BA7">
         <v>1.901982000667957</v>
       </c>
+      <c r="BB7">
+        <v>1.901982000667957</v>
+      </c>
     </row>
-    <row r="8" spans="1:53">
+    <row r="8" spans="1:54">
       <c r="A8" s="1">
         <v>42004</v>
       </c>
@@ -1398,8 +1416,11 @@
       <c r="BA8">
         <v>4.096464207715544</v>
       </c>
+      <c r="BB8">
+        <v>4.096464207715544</v>
+      </c>
     </row>
-    <row r="9" spans="1:53">
+    <row r="9" spans="1:54">
       <c r="A9" s="1">
         <v>42369</v>
       </c>
@@ -1526,8 +1547,11 @@
       <c r="BA9">
         <v>4.722511558181752</v>
       </c>
+      <c r="BB9">
+        <v>4.722511558181752</v>
+      </c>
     </row>
-    <row r="10" spans="1:53">
+    <row r="10" spans="1:54">
       <c r="A10" s="1">
         <v>42735</v>
       </c>
@@ -1648,8 +1672,11 @@
       <c r="BA10">
         <v>3.349054996465806</v>
       </c>
+      <c r="BB10">
+        <v>3.349054996465806</v>
+      </c>
     </row>
-    <row r="11" spans="1:53">
+    <row r="11" spans="1:54">
       <c r="A11" s="1">
         <v>43100</v>
       </c>
@@ -1764,8 +1791,11 @@
       <c r="BA11">
         <v>5.398773774976817</v>
       </c>
+      <c r="BB11">
+        <v>5.398773774976817</v>
+      </c>
     </row>
-    <row r="12" spans="1:53">
+    <row r="12" spans="1:54">
       <c r="A12" s="1">
         <v>43465</v>
       </c>
@@ -1874,8 +1904,11 @@
       <c r="BA12">
         <v>4.827382248746059</v>
       </c>
+      <c r="BB12">
+        <v>4.827382248746059</v>
+      </c>
     </row>
-    <row r="13" spans="1:53">
+    <row r="13" spans="1:54">
       <c r="A13" s="1">
         <v>43830</v>
       </c>
@@ -1978,8 +2011,11 @@
       <c r="BA13">
         <v>3.057436569079708</v>
       </c>
+      <c r="BB13">
+        <v>3.057436569079708</v>
+      </c>
     </row>
-    <row r="14" spans="1:53">
+    <row r="14" spans="1:54">
       <c r="A14" s="1">
         <v>44196</v>
       </c>
@@ -2073,8 +2109,11 @@
       <c r="BA14">
         <v>-7.240028578896962</v>
       </c>
+      <c r="BB14">
+        <v>-7.240028578896962</v>
+      </c>
     </row>
-    <row r="15" spans="1:53">
+    <row r="15" spans="1:54">
       <c r="A15" s="1">
         <v>44561</v>
       </c>
@@ -2156,8 +2195,11 @@
       <c r="BA15">
         <v>4.518318737295335</v>
       </c>
+      <c r="BB15">
+        <v>4.518318737295335</v>
+      </c>
     </row>
-    <row r="16" spans="1:53">
+    <row r="16" spans="1:54">
       <c r="A16" s="1">
         <v>44926</v>
       </c>
@@ -2227,8 +2269,11 @@
       <c r="BA16">
         <v>8.368890311302657</v>
       </c>
+      <c r="BB16">
+        <v>8.368890311302657</v>
+      </c>
     </row>
-    <row r="17" spans="1:53">
+    <row r="17" spans="1:54">
       <c r="A17" s="1">
         <v>45291</v>
       </c>
@@ -2286,8 +2331,11 @@
       <c r="BA17">
         <v>-0.5780765226327311</v>
       </c>
+      <c r="BB17">
+        <v>-0.5780765226327311</v>
+      </c>
     </row>
-    <row r="18" spans="1:53">
+    <row r="18" spans="1:54">
       <c r="A18" s="1">
         <v>45657</v>
       </c>
@@ -2333,8 +2381,11 @@
       <c r="BA18">
         <v>-2.031769649484816</v>
       </c>
+      <c r="BB18">
+        <v>-2.031769649484816</v>
+      </c>
     </row>
-    <row r="19" spans="1:53">
+    <row r="19" spans="1:54">
       <c r="A19" s="1">
         <v>46022</v>
       </c>
@@ -2368,8 +2419,11 @@
       <c r="BA19">
         <v>2.704857934901939</v>
       </c>
+      <c r="BB19">
+        <v>2.560577522109297</v>
+      </c>
     </row>
-    <row r="20" spans="1:53">
+    <row r="20" spans="1:54">
       <c r="A20" s="1">
         <v>46387</v>
       </c>
@@ -2391,8 +2445,11 @@
       <c r="BA20">
         <v>3.343276078818591</v>
       </c>
+      <c r="BB20">
+        <v>2.991302072731838</v>
+      </c>
     </row>
-    <row r="21" spans="1:53">
+    <row r="21" spans="1:54">
       <c r="A21" s="1">
         <v>46752</v>
       </c>
@@ -2402,8 +2459,11 @@
       <c r="BA21">
         <v>2.78474996485687</v>
       </c>
+      <c r="BB21">
+        <v>2.662571721610907</v>
+      </c>
     </row>
-    <row r="22" spans="1:53">
+    <row r="22" spans="1:54">
       <c r="A22" s="1">
         <v>47118</v>
       </c>
